--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD0DD2-6074-4A4F-A741-92D44C4C34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A342C-9DD6-47DB-8C88-0997D4D4ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>本革D</t>
   </si>
   <si>
-    <t>b5</t>
-  </si>
-  <si>
     <t>材質</t>
   </si>
   <si>
@@ -1023,6 +1020,13 @@
   </si>
   <si>
     <t>NW264A</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1363,7 +1367,7 @@
   <dimension ref="A1:K1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J189"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1406,21 +1410,21 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D2" s="5">
         <v>99</v>
@@ -1442,21 +1446,21 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="12">
         <v>18000</v>
@@ -1474,24 +1478,24 @@
         <v>42000</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="12">
         <v>18000</v>
@@ -1509,24 +1513,24 @@
         <v>42000</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="12">
         <v>18000</v>
@@ -1544,22 +1548,22 @@
         <v>42000</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="12">
         <v>18000</v>
@@ -1577,22 +1581,22 @@
         <v>42000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="12">
         <v>18000</v>
@@ -1610,22 +1614,22 @@
         <v>42000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E8" s="12">
         <v>27000</v>
@@ -1643,19 +1647,19 @@
         <v>72000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1680,16 +1684,16 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="12">
         <v>58000</v>
@@ -1707,22 +1711,22 @@
         <v>103000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E11" s="12">
         <v>45000</v>
@@ -1740,22 +1744,22 @@
         <v>90000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="12">
         <v>45000</v>
@@ -1773,22 +1777,22 @@
         <v>90000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E13" s="12">
         <v>32000</v>
@@ -1806,22 +1810,22 @@
         <v>77000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="12">
         <v>45000</v>
@@ -1839,22 +1843,22 @@
         <v>90000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="12">
         <v>45000</v>
@@ -1872,22 +1876,22 @@
         <v>90000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E16" s="12">
         <v>18000</v>
@@ -1905,22 +1909,22 @@
         <v>42000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E17" s="12">
         <v>15000</v>
@@ -1938,22 +1942,22 @@
         <v>33000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="12">
         <v>15000</v>
@@ -1971,22 +1975,22 @@
         <v>33000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="12">
         <v>45000</v>
@@ -2004,22 +2008,22 @@
         <v>90000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="12">
         <v>45000</v>
@@ -2037,22 +2041,22 @@
         <v>90000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="12">
         <v>15000</v>
@@ -2070,22 +2074,22 @@
         <v>33000</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12">
         <v>45000</v>
@@ -2103,22 +2107,22 @@
         <v>90000</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="12">
         <v>15000</v>
@@ -2136,22 +2140,22 @@
         <v>33000</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="12">
         <v>15000</v>
@@ -2169,19 +2173,19 @@
         <v>33000</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -2203,18 +2207,18 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -2236,21 +2240,21 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="12">
         <v>15000</v>
@@ -2268,19 +2272,19 @@
         <v>33000</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5">
         <v>99</v>
@@ -2302,18 +2306,18 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5">
         <v>99</v>
@@ -2335,21 +2339,21 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="12">
         <v>45000</v>
@@ -2367,22 +2371,22 @@
         <v>90000</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="12">
         <v>45000</v>
@@ -2400,22 +2404,22 @@
         <v>90000</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="12">
         <v>15000</v>
@@ -2433,22 +2437,22 @@
         <v>33000</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="12">
         <v>15000</v>
@@ -2466,22 +2470,22 @@
         <v>33000</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="12">
         <v>45000</v>
@@ -2499,22 +2503,22 @@
         <v>90000</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="12">
         <v>45000</v>
@@ -2532,22 +2536,22 @@
         <v>90000</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="12">
         <v>45000</v>
@@ -2565,22 +2569,22 @@
         <v>90000</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="12">
         <v>45000</v>
@@ -2598,22 +2602,22 @@
         <v>90000</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="12">
         <v>45000</v>
@@ -2631,22 +2635,22 @@
         <v>90000</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="12">
         <v>15000</v>
@@ -2664,24 +2668,24 @@
         <v>33000</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="12">
         <v>15000</v>
@@ -2699,24 +2703,24 @@
         <v>33000</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="12">
         <v>45000</v>
@@ -2734,22 +2738,22 @@
         <v>90000</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="12">
         <v>15000</v>
@@ -2767,22 +2771,22 @@
         <v>33000</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E43" s="12">
         <v>18000</v>
@@ -2800,22 +2804,22 @@
         <v>42000</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E44" s="12">
         <v>18000</v>
@@ -2833,22 +2837,22 @@
         <v>42000</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E45" s="12">
         <v>18000</v>
@@ -2866,22 +2870,22 @@
         <v>42000</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="12">
         <v>45000</v>
@@ -2899,22 +2903,22 @@
         <v>90000</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="12">
         <v>45000</v>
@@ -2932,22 +2936,22 @@
         <v>90000</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="12">
         <v>45000</v>
@@ -2965,22 +2969,22 @@
         <v>90000</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="12">
         <v>45000</v>
@@ -2998,22 +3002,22 @@
         <v>90000</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="C50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E50" s="12">
         <v>18000</v>
@@ -3031,24 +3035,24 @@
         <v>42000</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E51" s="12">
         <v>18000</v>
@@ -3066,24 +3070,24 @@
         <v>42000</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="12">
         <v>45000</v>
@@ -3101,22 +3105,22 @@
         <v>90000</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="12">
         <v>45000</v>
@@ -3134,22 +3138,22 @@
         <v>90000</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E54" s="12">
         <v>63000</v>
@@ -3167,22 +3171,22 @@
         <v>108000</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="C55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E55" s="12">
         <v>18000</v>
@@ -3200,22 +3204,22 @@
         <v>42000</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E56" s="12">
         <v>18000</v>
@@ -3233,22 +3237,22 @@
         <v>42000</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="12">
         <v>45000</v>
@@ -3266,22 +3270,22 @@
         <v>90000</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="12">
         <v>45000</v>
@@ -3299,22 +3303,22 @@
         <v>90000</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E59" s="12">
         <v>13000</v>
@@ -3332,24 +3336,24 @@
         <v>37000</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="12">
         <v>13000</v>
@@ -3367,24 +3371,24 @@
         <v>37000</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E61" s="12">
         <v>13000</v>
@@ -3402,24 +3406,24 @@
         <v>37000</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E62" s="12">
         <v>32500</v>
@@ -3437,19 +3441,19 @@
         <v>92500</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -3474,16 +3478,16 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E64" s="12">
         <v>23400</v>
@@ -3501,19 +3505,19 @@
         <v>66600</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
@@ -3538,13 +3542,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="5">
         <v>99</v>
@@ -3566,18 +3570,18 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="5">
         <v>99</v>
@@ -3599,21 +3603,21 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1">
       <c r="A68" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="12">
         <v>13000</v>
@@ -3631,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E69" s="12">
         <v>15000</v>
@@ -3664,21 +3668,21 @@
         <v>33000</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D70" s="5">
         <v>99</v>
@@ -3700,18 +3704,18 @@
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D71" s="5">
         <v>99</v>
@@ -3733,18 +3737,18 @@
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D72" s="5">
         <v>99</v>
@@ -3766,18 +3770,18 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="5">
         <v>99</v>
@@ -3799,18 +3803,18 @@
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74" s="5">
         <v>99</v>
@@ -3832,18 +3836,18 @@
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="C75" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D75" s="5">
         <v>99</v>
@@ -3865,18 +3869,18 @@
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D76" s="5">
         <v>99</v>
@@ -3898,18 +3902,18 @@
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D77" s="5">
         <v>99</v>
@@ -3931,18 +3935,18 @@
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D78" s="5">
         <v>99</v>
@@ -3967,16 +3971,16 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E79" s="12">
         <v>18000</v>
@@ -3994,22 +3998,22 @@
         <v>42000</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E80" s="12">
         <v>15000</v>
@@ -4027,22 +4031,22 @@
         <v>33000</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K80" s="7"/>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="12">
         <v>15000</v>
@@ -4060,22 +4064,22 @@
         <v>33000</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1">
       <c r="A82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E82" s="12">
         <v>18000</v>
@@ -4093,22 +4097,22 @@
         <v>42000</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K82" s="7"/>
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E83" s="12">
         <v>18000</v>
@@ -4126,22 +4130,22 @@
         <v>42000</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K83" s="7"/>
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E84" s="12">
         <v>18000</v>
@@ -4159,19 +4163,19 @@
         <v>42000</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K84" s="7"/>
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="5">
         <v>0</v>
@@ -4196,13 +4200,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -4227,13 +4231,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -4258,13 +4262,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="5">
         <v>0</v>
@@ -4289,16 +4293,16 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="12">
         <v>36000</v>
@@ -4316,19 +4320,19 @@
         <v>81000</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D90" s="5">
         <v>99</v>
@@ -4350,18 +4354,18 @@
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91" s="5">
         <v>99</v>
@@ -4383,18 +4387,18 @@
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" s="5">
         <v>0</v>
@@ -4419,16 +4423,16 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E93" s="12">
         <v>18000</v>
@@ -4446,22 +4450,22 @@
         <v>42000</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E94" s="12">
         <v>18000</v>
@@ -4479,22 +4483,22 @@
         <v>42000</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K94" s="7"/>
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E95" s="12">
         <v>18000</v>
@@ -4512,22 +4516,22 @@
         <v>42000</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K95" s="7"/>
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E96" s="12">
         <v>18000</v>
@@ -4545,22 +4549,22 @@
         <v>42000</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K96" s="7"/>
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E97" s="12">
         <v>13000</v>
@@ -4578,22 +4582,22 @@
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E98" s="12">
         <v>13000</v>
@@ -4611,19 +4615,19 @@
         <v>0</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
@@ -4648,13 +4652,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -4679,13 +4683,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="C101" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101" s="5">
         <v>99</v>
@@ -4707,18 +4711,18 @@
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="A102" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="C102" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D102" s="5">
         <v>99</v>
@@ -4740,18 +4744,18 @@
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="C103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" s="5">
         <v>99</v>
@@ -4773,18 +4777,18 @@
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" s="5">
         <v>99</v>
@@ -4806,18 +4810,18 @@
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D105" s="5">
         <v>99</v>
@@ -4839,18 +4843,18 @@
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="C106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D106" s="5">
         <v>99</v>
@@ -4872,18 +4876,18 @@
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="C107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="5">
         <v>99</v>
@@ -4905,21 +4909,21 @@
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="C108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E108" s="12">
         <v>15000</v>
@@ -4937,24 +4941,24 @@
         <v>33000</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="C109" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E109" s="12">
         <v>32000</v>
@@ -4972,24 +4976,24 @@
         <v>77000</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E110" s="12">
         <v>45000</v>
@@ -5007,19 +5011,19 @@
         <v>90000</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K110" s="7"/>
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" s="5">
         <v>0</v>
@@ -5044,16 +5048,16 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E112" s="12">
         <v>45000</v>
@@ -5071,19 +5075,19 @@
         <v>90000</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K112" s="7"/>
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" s="5">
         <v>0</v>
@@ -5108,16 +5112,16 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E114" s="12">
         <v>45000</v>
@@ -5135,22 +5139,22 @@
         <v>90000</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K114" s="7"/>
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E115" s="12">
         <v>45000</v>
@@ -5168,22 +5172,22 @@
         <v>90000</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1">
       <c r="A116" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E116" s="12">
         <v>15000</v>
@@ -5201,22 +5205,22 @@
         <v>33000</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K116" s="7"/>
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E117" s="12">
         <v>15000</v>
@@ -5234,22 +5238,22 @@
         <v>33000</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K117" s="7"/>
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="C118" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E118" s="12">
         <v>15000</v>
@@ -5267,22 +5271,22 @@
         <v>33000</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K118" s="7"/>
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1">
       <c r="A119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E119" s="12">
         <v>18000</v>
@@ -5300,22 +5304,22 @@
         <v>42000</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K119" s="7"/>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E120" s="12">
         <v>18000</v>
@@ -5333,22 +5337,22 @@
         <v>42000</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K120" s="7"/>
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E121" s="12">
         <v>13000</v>
@@ -5366,22 +5370,22 @@
         <v>37000</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K121" s="7"/>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E122" s="12">
         <v>13000</v>
@@ -5399,22 +5403,22 @@
         <v>37000</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K122" s="7"/>
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="D123" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E123" s="12">
         <v>13000</v>
@@ -5432,22 +5436,22 @@
         <v>37000</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K123" s="7"/>
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E124" s="12">
         <v>18000</v>
@@ -5465,22 +5469,22 @@
         <v>42000</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K124" s="7"/>
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E125" s="12">
         <v>18000</v>
@@ -5498,22 +5502,22 @@
         <v>42000</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K125" s="7"/>
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E126" s="12">
         <v>45000</v>
@@ -5531,22 +5535,22 @@
         <v>90000</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K126" s="7"/>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E127" s="12">
         <v>45000</v>
@@ -5564,22 +5568,22 @@
         <v>90000</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K127" s="7"/>
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E128" s="12">
         <v>18000</v>
@@ -5597,22 +5601,22 @@
         <v>42000</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K128" s="7"/>
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="C129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E129" s="12">
         <v>15000</v>
@@ -5630,22 +5634,22 @@
         <v>33000</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K129" s="7"/>
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E130" s="12">
         <v>15000</v>
@@ -5663,19 +5667,19 @@
         <v>33000</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K130" s="7"/>
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D131" s="5">
         <v>99</v>
@@ -5697,18 +5701,18 @@
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="C132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" s="5">
         <v>99</v>
@@ -5730,21 +5734,21 @@
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="C133" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E133" s="12">
         <v>15000</v>
@@ -5762,22 +5766,22 @@
         <v>33000</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K133" s="7"/>
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="C134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E134" s="12">
         <v>15000</v>
@@ -5795,22 +5799,22 @@
         <v>33000</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K134" s="7"/>
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E135" s="12">
         <v>18000</v>
@@ -5828,22 +5832,22 @@
         <v>42000</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K135" s="7"/>
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="C136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E136" s="12">
         <v>15000</v>
@@ -5861,22 +5865,22 @@
         <v>33000</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K136" s="7"/>
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E137" s="12">
         <v>15000</v>
@@ -5894,19 +5898,19 @@
         <v>33000</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K137" s="7"/>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D138" s="5">
         <v>0</v>
@@ -5931,13 +5935,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -5962,13 +5966,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D140" s="5">
         <v>0</v>
@@ -5993,13 +5997,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
@@ -6024,13 +6028,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D142" s="5">
         <v>0</v>
@@ -6055,16 +6059,16 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E143" s="12">
         <v>18000</v>
@@ -6082,22 +6086,22 @@
         <v>42000</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K143" s="7"/>
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E144" s="12">
         <v>18000</v>
@@ -6115,22 +6119,22 @@
         <v>42000</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K144" s="7"/>
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E145" s="12">
         <v>45000</v>
@@ -6148,22 +6152,22 @@
         <v>90000</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K145" s="7"/>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E146" s="12">
         <v>45000</v>
@@ -6181,22 +6185,22 @@
         <v>90000</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K146" s="7"/>
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1">
       <c r="A147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E147" s="12">
         <v>18000</v>
@@ -6214,22 +6218,22 @@
         <v>42000</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K147" s="7"/>
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E148" s="12">
         <v>18000</v>
@@ -6247,22 +6251,22 @@
         <v>42000</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K148" s="7"/>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E149" s="12">
         <v>18000</v>
@@ -6280,24 +6284,24 @@
         <v>42000</v>
       </c>
       <c r="J149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E150" s="12">
         <v>45000</v>
@@ -6315,22 +6319,22 @@
         <v>90000</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K150" s="7"/>
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E151" s="12">
         <v>45000</v>
@@ -6348,22 +6352,22 @@
         <v>90000</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K151" s="7"/>
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1">
       <c r="A152" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C152" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E152" s="12">
         <v>15000</v>
@@ -6381,22 +6385,22 @@
         <v>33000</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K152" s="7"/>
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E153" s="12">
         <v>15000</v>
@@ -6414,22 +6418,22 @@
         <v>33000</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K153" s="7"/>
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1">
       <c r="A154" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C154" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E154" s="12">
         <v>15000</v>
@@ -6447,22 +6451,22 @@
         <v>33000</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K154" s="7"/>
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1">
       <c r="A155" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="C155" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E155" s="12">
         <v>15000</v>
@@ -6480,19 +6484,19 @@
         <v>33000</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K155" s="7"/>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D156" s="5">
         <v>0</v>
@@ -6517,13 +6521,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" s="5">
         <v>0</v>
@@ -6548,16 +6552,16 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1">
       <c r="A158" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E158" s="12">
         <v>15000</v>
@@ -6575,22 +6579,22 @@
         <v>33000</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K158" s="7"/>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1">
       <c r="A159" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B159" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="C159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E159" s="12">
         <v>15000</v>
@@ -6608,22 +6612,22 @@
         <v>33000</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K159" s="7"/>
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E160" s="12">
         <v>15000</v>
@@ -6641,22 +6645,22 @@
         <v>33000</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K160" s="7"/>
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E161" s="12">
         <v>15000</v>
@@ -6674,19 +6678,19 @@
         <v>33000</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K161" s="7"/>
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="C162" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D162" s="5">
         <v>99</v>
@@ -6708,18 +6712,18 @@
       </c>
       <c r="J162" s="3"/>
       <c r="K162" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="C163" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D163" s="5">
         <v>99</v>
@@ -6741,21 +6745,21 @@
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="C164" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E164" s="12">
         <v>26000</v>
@@ -6773,24 +6777,24 @@
         <v>0</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="C165" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E165" s="12">
         <v>45000</v>
@@ -6808,22 +6812,22 @@
         <v>90000</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K165" s="7"/>
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E166" s="12">
         <v>15000</v>
@@ -6841,22 +6845,22 @@
         <v>33000</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K166" s="7"/>
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="C167" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E167" s="12">
         <v>45000</v>
@@ -6874,22 +6878,22 @@
         <v>90000</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K167" s="7"/>
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E168" s="12">
         <v>18000</v>
@@ -6907,22 +6911,22 @@
         <v>42000</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K168" s="7"/>
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E169" s="12">
         <v>18000</v>
@@ -6940,22 +6944,22 @@
         <v>42000</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K169" s="7"/>
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C170" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E170" s="12">
         <v>15000</v>
@@ -6973,22 +6977,22 @@
         <v>33000</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K170" s="7"/>
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E171" s="12">
         <v>45000</v>
@@ -7006,22 +7010,22 @@
         <v>90000</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K171" s="7"/>
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="C172" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E172" s="12">
         <v>45000</v>
@@ -7039,22 +7043,22 @@
         <v>90000</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K172" s="7"/>
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E173" s="12">
         <v>32000</v>
@@ -7072,22 +7076,22 @@
         <v>77000</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" s="7"/>
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E174" s="12">
         <v>15000</v>
@@ -7105,22 +7109,22 @@
         <v>33000</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K174" s="7"/>
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E175" s="12">
         <v>32000</v>
@@ -7138,22 +7142,22 @@
         <v>77000</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K175" s="7"/>
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E176" s="12">
         <v>15000</v>
@@ -7171,22 +7175,22 @@
         <v>33000</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K176" s="7"/>
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E177" s="12">
         <v>15000</v>
@@ -7204,22 +7208,22 @@
         <v>33000</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K177" s="7"/>
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="C178" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E178" s="12">
         <v>45000</v>
@@ -7237,22 +7241,22 @@
         <v>90000</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K178" s="7"/>
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E179" s="12">
         <v>45000</v>
@@ -7270,22 +7274,22 @@
         <v>90000</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K179" s="7"/>
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="C180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E180" s="12">
         <v>15000</v>
@@ -7303,22 +7307,22 @@
         <v>33000</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K180" s="7"/>
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E181" s="12">
         <v>15000</v>
@@ -7336,22 +7340,22 @@
         <v>33000</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K181" s="7"/>
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E182" s="12">
         <v>15000</v>
@@ -7369,22 +7373,22 @@
         <v>33000</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K182" s="7"/>
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E183" s="12">
         <v>18000</v>
@@ -7402,24 +7406,24 @@
         <v>42000</v>
       </c>
       <c r="J183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E184" s="12">
         <v>18000</v>
@@ -7437,24 +7441,24 @@
         <v>42000</v>
       </c>
       <c r="J184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K184" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E185" s="12">
         <v>18000</v>
@@ -7472,21 +7476,21 @@
         <v>42000</v>
       </c>
       <c r="J185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" s="5">
         <v>99</v>
@@ -7508,21 +7512,21 @@
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1">
       <c r="A187" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E187" s="12">
         <v>18000</v>
@@ -7540,24 +7544,24 @@
         <v>42000</v>
       </c>
       <c r="J187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K187" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E188" s="12">
         <v>18000</v>
@@ -7575,24 +7579,24 @@
         <v>42000</v>
       </c>
       <c r="J188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="C189" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E189" s="12">
         <v>15000</v>
@@ -7610,7 +7614,7 @@
         <v>33000</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K189" s="7"/>
     </row>

--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A342C-9DD6-47DB-8C88-0997D4D4ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DA958-0954-444C-8B46-D7A7CBA38D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,9 +869,6 @@
     <t>KITSUTSUKI SERVICE MENU GOODS</t>
   </si>
   <si>
-    <t>C71</t>
-  </si>
-  <si>
     <t>ホワイトパラ・ブナ</t>
   </si>
   <si>
@@ -1026,6 +1023,10 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C71</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1366,19 +1367,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="53.81640625" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
-    <col min="12" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="53.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
@@ -1410,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>9</v>
@@ -1948,10 +1949,10 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -2945,7 +2946,7 @@
         <v>102</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>69</v>
@@ -2978,7 +2979,7 @@
         <v>102</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>69</v>
@@ -3347,7 +3348,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>227</v>
@@ -3712,7 +3713,7 @@
         <v>276</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>266</v>
@@ -3737,7 +3738,7 @@
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1">
@@ -3745,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>266</v>
@@ -3770,15 +3771,15 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>12</v>
@@ -3808,10 +3809,10 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>266</v>
@@ -3841,10 +3842,10 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>266</v>
@@ -3869,15 +3870,15 @@
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>266</v>
@@ -3902,15 +3903,15 @@
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>266</v>
@@ -3935,15 +3936,15 @@
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>266</v>
@@ -4296,7 +4297,7 @@
         <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>69</v>
@@ -4326,7 +4327,7 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>209</v>
@@ -4359,10 +4360,10 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>69</v>
@@ -4683,10 +4684,10 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>12</v>
@@ -4716,10 +4717,10 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="A102" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>266</v>
@@ -4749,10 +4750,10 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>12</v>
@@ -4782,10 +4783,10 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>12</v>
@@ -4815,10 +4816,10 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>266</v>
@@ -4848,10 +4849,10 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>266</v>
@@ -4881,10 +4882,10 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>12</v>
@@ -5673,13 +5674,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D131" s="5">
         <v>99</v>
@@ -5701,15 +5702,15 @@
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>12</v>
@@ -5734,7 +5735,7 @@
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
@@ -6161,7 +6162,7 @@
         <v>50</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>69</v>
@@ -6227,7 +6228,7 @@
         <v>55</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>12</v>
@@ -6260,7 +6261,7 @@
         <v>55</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>12</v>
@@ -6684,10 +6685,10 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>266</v>
@@ -6717,10 +6718,10 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>266</v>
@@ -7484,10 +7485,10 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>12</v>
@@ -7512,7 +7513,7 @@
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1">

--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_chair_gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DA958-0954-444C-8B46-D7A7CBA38D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85053A4-BFD5-49C7-88CF-8A8F2C7A08CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="372">
   <si>
     <t>シリーズ</t>
   </si>
@@ -92,9 +92,6 @@
     <t>#2002_A</t>
   </si>
   <si>
-    <t>#2002_O</t>
-  </si>
-  <si>
     <t>#2003_A</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>アンデス</t>
   </si>
   <si>
-    <t>#760</t>
-  </si>
-  <si>
     <t>#761</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>SP211_A</t>
-  </si>
-  <si>
     <t>エトランゼ</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>KA270</t>
   </si>
   <si>
-    <t>KA271A</t>
-  </si>
-  <si>
     <t>KA272A</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
     <t>円空</t>
   </si>
   <si>
-    <t>SE247_A</t>
-  </si>
-  <si>
     <t>クレセント</t>
   </si>
   <si>
@@ -566,24 +551,15 @@
     <t>Prescelto</t>
   </si>
   <si>
-    <t>PS240_A</t>
-  </si>
-  <si>
     <t>PS250_A</t>
   </si>
   <si>
     <t>ロヴェレート</t>
   </si>
   <si>
-    <t>RV250_A</t>
-  </si>
-  <si>
     <t>ビーンズ</t>
   </si>
   <si>
-    <t>SB210</t>
-  </si>
-  <si>
     <t>SB280A</t>
   </si>
   <si>
@@ -596,9 +572,6 @@
     <t>アトラス</t>
   </si>
   <si>
-    <t>SP212_A</t>
-  </si>
-  <si>
     <t>SP237</t>
   </si>
   <si>
@@ -729,9 +702,6 @@
   </si>
   <si>
     <t>Standard Collection</t>
-  </si>
-  <si>
-    <t>SD208_A_B_AB</t>
   </si>
   <si>
     <t>10</t>
@@ -1028,6 +998,237 @@
   <si>
     <t>C71</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#726A_01</t>
+  </si>
+  <si>
+    <t>#2002_O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>KA271A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#760</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#763</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ミディ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#768A</t>
+  </si>
+  <si>
+    <t>#768</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワイオミング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#4101</t>
+  </si>
+  <si>
+    <t>#4204</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>ウラル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>コロンビア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C65</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>折り畳み</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>板座</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>IS10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>張り</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>IS20A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張り</t>
+    </r>
+  </si>
+  <si>
+    <t>ボウレン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SC201</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SC281</t>
+  </si>
+  <si>
+    <t>ニューララミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SC281T</t>
+  </si>
+  <si>
+    <t>SC286</t>
+  </si>
+  <si>
+    <t>デンバー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SP211</t>
+  </si>
+  <si>
+    <t>SP211A</t>
+  </si>
+  <si>
+    <t>TK50</t>
+  </si>
+  <si>
+    <t>座</t>
+    <rPh sb="0" eb="1">
+      <t>ザ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TK60</t>
+  </si>
+  <si>
+    <t>TM326</t>
+  </si>
+  <si>
+    <t>TM327</t>
+  </si>
+  <si>
+    <t>アーバン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>U1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PS240A</t>
+  </si>
+  <si>
+    <t>PS240</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PS250</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RV250</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RV250A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SB210</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SD208</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SD208A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SD208B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SD208AB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナラ・ブナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SE247A</t>
+  </si>
+  <si>
+    <t>SE247</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SP212</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SP212A</t>
+  </si>
+  <si>
+    <t>T4001</t>
+  </si>
+  <si>
+    <t>T4101</t>
+  </si>
+  <si>
+    <t>T4204</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1279,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1128,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1150,6 +1366,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1365,21 +1582,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1037"/>
+  <dimension ref="A1:K1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209:C210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="53.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" customWidth="1"/>
+    <col min="10" max="10" width="53.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="12" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
@@ -1411,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>9</v>
@@ -1419,13 +1636,13 @@
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="5">
         <v>99</v>
@@ -1447,7 +1664,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
@@ -1557,8 +1774,8 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
+      <c r="B6" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1591,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1621,16 +1838,16 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E8" s="12">
         <v>27000</v>
@@ -1648,19 +1865,19 @@
         <v>72000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1688,13 +1905,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="12">
         <v>58000</v>
@@ -1712,7 +1929,7 @@
         <v>103000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1721,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="12">
         <v>45000</v>
@@ -1745,7 +1962,7 @@
         <v>90000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -1754,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="12">
         <v>45000</v>
@@ -1778,319 +1995,283 @@
         <v>90000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="12">
-        <v>32000</v>
-      </c>
-      <c r="F13" s="12">
-        <v>36000</v>
-      </c>
-      <c r="G13" s="12">
-        <v>40000</v>
-      </c>
-      <c r="H13" s="12">
-        <v>67000</v>
-      </c>
-      <c r="I13" s="12">
-        <v>77000</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="12">
-        <v>45000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>49000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>53000</v>
-      </c>
-      <c r="H14" s="12">
-        <v>80000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E15" s="12">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="F15" s="12">
-        <v>49000</v>
+        <v>36000</v>
       </c>
       <c r="G15" s="12">
-        <v>53000</v>
+        <v>40000</v>
       </c>
       <c r="H15" s="12">
-        <v>80000</v>
+        <v>67000</v>
       </c>
       <c r="I15" s="12">
-        <v>90000</v>
+        <v>77000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E16" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F16" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G16" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H16" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I16" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E17" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F17" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G17" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H17" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I17" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>317</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E18" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F18" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H18" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I18" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E19" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F19" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G19" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H19" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I19" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>308</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E20" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H20" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I20" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E21" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F21" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G21" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H21" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I21" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="12">
         <v>45000</v>
@@ -2108,22 +2289,22 @@
         <v>90000</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E23" s="12">
         <v>15000</v>
@@ -2141,166 +2322,166 @@
         <v>33000</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E24" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F24" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G24" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H24" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I24" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E25" s="12">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="12">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="G25" s="12">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="H25" s="12">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>33000</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E26" s="12">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="12">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="G26" s="12">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="H26" s="12">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>33000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>141</v>
+        <v>234</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
       </c>
       <c r="E27" s="12">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="F27" s="12">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="12">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="H27" s="12">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="I27" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="D28" s="5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F28" s="12">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="G28" s="12">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="H28" s="12">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2311,182 +2492,164 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5">
-        <v>99</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E30" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G30" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H30" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I30" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>258</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="5">
+        <v>99</v>
       </c>
       <c r="E31" s="12">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="12">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>141</v>
+      <c r="D32" s="5">
+        <v>99</v>
       </c>
       <c r="E32" s="12">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E33" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F33" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G33" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H33" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I33" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="12">
         <v>45000</v>
@@ -2504,88 +2667,88 @@
         <v>90000</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E35" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G35" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H35" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I35" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E36" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G36" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H36" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I36" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="12">
         <v>45000</v>
@@ -2603,22 +2766,22 @@
         <v>90000</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="12">
         <v>45000</v>
@@ -2636,92 +2799,88 @@
         <v>90000</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E39" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F39" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G39" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H39" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I39" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E40" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F40" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G40" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H40" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I40" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" s="12">
         <v>45000</v>
@@ -2739,22 +2898,22 @@
         <v>90000</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E42" s="12">
         <v>15000</v>
@@ -2772,220 +2931,224 @@
         <v>33000</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E43" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F43" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G43" s="12">
         <v>18000</v>
       </c>
-      <c r="F43" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G43" s="12">
-        <v>24000</v>
-      </c>
       <c r="H43" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I43" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E44" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F44" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G44" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H44" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I44" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E45" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F45" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G45" s="12">
         <v>18000</v>
       </c>
-      <c r="F45" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G45" s="12">
-        <v>24000</v>
-      </c>
       <c r="H45" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I45" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E46" s="12">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F46" s="12">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="G46" s="12">
-        <v>53000</v>
+        <v>24000</v>
       </c>
       <c r="H46" s="12">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="I46" s="12">
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E47" s="12">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F47" s="12">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="G47" s="12">
-        <v>53000</v>
+        <v>24000</v>
       </c>
       <c r="H47" s="12">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="I47" s="12">
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E48" s="12">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F48" s="12">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="12">
-        <v>53000</v>
+        <v>24000</v>
       </c>
       <c r="H48" s="12">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="I48" s="12">
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E49" s="12">
         <v>45000</v>
@@ -3003,92 +3166,88 @@
         <v>90000</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E50" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F50" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G50" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H50" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I50" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E51" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F51" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G51" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H51" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I51" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E52" s="12">
         <v>45000</v>
@@ -3106,650 +3265,604 @@
         <v>90000</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E53" s="12">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F53" s="12">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="G53" s="12">
-        <v>53000</v>
+        <v>24000</v>
       </c>
       <c r="H53" s="12">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="I53" s="12">
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="E54" s="12">
-        <v>63000</v>
+        <v>18000</v>
       </c>
       <c r="F54" s="12">
-        <v>67000</v>
+        <v>20000</v>
       </c>
       <c r="G54" s="12">
-        <v>71000</v>
+        <v>24000</v>
       </c>
       <c r="H54" s="12">
-        <v>98000</v>
+        <v>38000</v>
       </c>
       <c r="I54" s="12">
-        <v>108000</v>
+        <v>42000</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K54" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E55" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F55" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G55" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H55" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I55" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E56" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F56" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G56" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H56" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I56" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E57" s="12">
-        <v>45000</v>
+        <v>63000</v>
       </c>
       <c r="F57" s="12">
-        <v>49000</v>
+        <v>67000</v>
       </c>
       <c r="G57" s="12">
-        <v>53000</v>
+        <v>71000</v>
       </c>
       <c r="H57" s="12">
-        <v>80000</v>
+        <v>98000</v>
       </c>
       <c r="I57" s="12">
-        <v>90000</v>
+        <v>108000</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>110</v>
+        <v>27</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E58" s="12">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="F58" s="12">
-        <v>49000</v>
+        <v>20000</v>
       </c>
       <c r="G58" s="12">
-        <v>53000</v>
+        <v>24000</v>
       </c>
       <c r="H58" s="12">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="I58" s="12">
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>226</v>
+        <v>27</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="E59" s="12">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="F59" s="12">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="12">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="H59" s="12">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I59" s="12">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>321</v>
+        <v>105</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="E60" s="12">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="F60" s="12">
-        <v>15000</v>
+        <v>49000</v>
       </c>
       <c r="G60" s="12">
-        <v>19000</v>
+        <v>53000</v>
       </c>
       <c r="H60" s="12">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="I60" s="12">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>229</v>
+        <v>105</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="E61" s="12">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="F61" s="12">
-        <v>15000</v>
+        <v>49000</v>
       </c>
       <c r="G61" s="12">
-        <v>19000</v>
+        <v>53000</v>
       </c>
       <c r="H61" s="12">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="I61" s="12">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="12">
-        <v>32500</v>
-      </c>
-      <c r="F62" s="12">
-        <v>37500</v>
-      </c>
-      <c r="G62" s="12">
-        <v>47500</v>
-      </c>
-      <c r="H62" s="12">
-        <v>82500</v>
-      </c>
-      <c r="I62" s="12">
-        <v>92500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>237</v>
+        <v>64</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E63" s="12">
-        <v>32500</v>
+        <v>13000</v>
       </c>
       <c r="F63" s="12">
-        <v>37500</v>
+        <v>15000</v>
       </c>
       <c r="G63" s="12">
-        <v>47500</v>
+        <v>19000</v>
       </c>
       <c r="H63" s="12">
-        <v>82500</v>
+        <v>33000</v>
       </c>
       <c r="I63" s="12">
-        <v>92500</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="7"/>
+        <v>37000</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>234</v>
+        <v>64</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E64" s="12">
-        <v>23400</v>
+        <v>13000</v>
       </c>
       <c r="F64" s="12">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="G64" s="12">
-        <v>34200</v>
+        <v>19000</v>
       </c>
       <c r="H64" s="12">
-        <v>59400</v>
+        <v>33000</v>
       </c>
       <c r="I64" s="12">
-        <v>66600</v>
+        <v>37000</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K64" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>241</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="5">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E65" s="12">
-        <v>23400</v>
+        <v>13000</v>
       </c>
       <c r="F65" s="12">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="G65" s="12">
-        <v>34200</v>
+        <v>19000</v>
       </c>
       <c r="H65" s="12">
-        <v>59400</v>
+        <v>33000</v>
       </c>
       <c r="I65" s="12">
-        <v>66600</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="7"/>
+        <v>37000</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="5">
-        <v>99</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5">
-        <v>99</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0</v>
-      </c>
-      <c r="F67" s="12">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-      <c r="H67" s="12">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12">
-        <v>0</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="K67" s="7"/>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E68" s="12">
-        <v>13000</v>
+        <v>32500</v>
       </c>
       <c r="F68" s="12">
-        <v>14000</v>
+        <v>37500</v>
       </c>
       <c r="G68" s="12">
-        <v>16000</v>
+        <v>47500</v>
       </c>
       <c r="H68" s="12">
-        <v>0</v>
+        <v>82500</v>
       </c>
       <c r="I68" s="12">
-        <v>0</v>
+        <v>92500</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>64</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>141</v>
+        <v>232</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
       </c>
       <c r="E69" s="12">
-        <v>15000</v>
+        <v>32500</v>
       </c>
       <c r="F69" s="12">
-        <v>16000</v>
+        <v>37500</v>
       </c>
       <c r="G69" s="12">
-        <v>18000</v>
+        <v>47500</v>
       </c>
       <c r="H69" s="12">
-        <v>30000</v>
+        <v>82500</v>
       </c>
       <c r="I69" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>92500</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>275</v>
+        <v>64</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D70" s="5">
-        <v>99</v>
+        <v>218</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E70" s="12">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="F70" s="12">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="G70" s="12">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="H70" s="12">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="I70" s="12">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>66600</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K70" s="7"/>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>326</v>
+        <v>64</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D71" s="5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E71" s="12">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="F71" s="12">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="G71" s="12">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="H71" s="12">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="I71" s="12">
-        <v>0</v>
+        <v>66600</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D72" s="5">
         <v>99</v>
@@ -3771,15 +3884,15 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>12</v>
@@ -3804,30 +3917,30 @@
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>281</v>
+        <v>208</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E74" s="12">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F74" s="12">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G74" s="12">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H74" s="12">
         <v>0</v>
@@ -3835,53 +3948,55 @@
       <c r="I74" s="12">
         <v>0</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="J74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D75" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E75" s="12">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F75" s="12">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G75" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="H75" s="12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I75" s="12">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3"/>
+        <v>33000</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="K75" s="7" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D76" s="5">
         <v>99</v>
@@ -3903,357 +4018,319 @@
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="7" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D77" s="5">
-        <v>99</v>
-      </c>
-      <c r="E77" s="12">
-        <v>0</v>
-      </c>
-      <c r="F77" s="12">
-        <v>0</v>
-      </c>
-      <c r="G77" s="12">
-        <v>0</v>
-      </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
-      <c r="I77" s="12">
-        <v>0</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="5">
-        <v>99</v>
-      </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="12">
-        <v>0</v>
-      </c>
-      <c r="G78" s="12">
-        <v>0</v>
-      </c>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
-      <c r="I78" s="12">
-        <v>0</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
       <c r="J78" s="3"/>
       <c r="K78" s="7"/>
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>32</v>
+        <v>331</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="12">
-        <v>18000</v>
-      </c>
-      <c r="F79" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G79" s="12">
-        <v>24000</v>
-      </c>
-      <c r="H79" s="12">
-        <v>38000</v>
-      </c>
-      <c r="I79" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="D80" s="5">
+        <v>99</v>
       </c>
       <c r="E80" s="12">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F80" s="12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H80" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I80" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K80" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>201</v>
+        <v>266</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="D81" s="5">
+        <v>99</v>
       </c>
       <c r="E81" s="12">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F81" s="12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G81" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H81" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I81" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K81" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>13</v>
+      <c r="D82" s="5">
+        <v>99</v>
       </c>
       <c r="E82" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F82" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G82" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H82" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I82" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>13</v>
+        <v>256</v>
+      </c>
+      <c r="D83" s="5">
+        <v>99</v>
       </c>
       <c r="E83" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G83" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H83" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I83" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>13</v>
+        <v>256</v>
+      </c>
+      <c r="D84" s="5">
+        <v>99</v>
       </c>
       <c r="E84" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F84" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G84" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H84" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I84" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E85" s="12">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="F85" s="12">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="G85" s="12">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="H85" s="12">
-        <v>109500</v>
+        <v>0</v>
       </c>
       <c r="I85" s="12">
         <v>0</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D86" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E86" s="12">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="F86" s="12">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="G86" s="12">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="H86" s="12">
-        <v>109500</v>
+        <v>0</v>
       </c>
       <c r="I86" s="12">
         <v>0</v>
       </c>
       <c r="J86" s="3"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>252</v>
+        <v>277</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E87" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F87" s="12">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="G87" s="12">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="H87" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I87" s="12">
         <v>0</v>
@@ -4263,171 +4340,175 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88" s="5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E88" s="12">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="F88" s="12">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="G88" s="12">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="H88" s="12">
-        <v>82000</v>
+        <v>38000</v>
       </c>
       <c r="I88" s="12">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K88" s="7"/>
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>316</v>
+        <v>153</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="E89" s="12">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="F89" s="12">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G89" s="12">
-        <v>44000</v>
+        <v>18000</v>
       </c>
       <c r="H89" s="12">
-        <v>71000</v>
+        <v>30000</v>
       </c>
       <c r="I89" s="12">
-        <v>81000</v>
+        <v>33000</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E90" s="12">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="F90" s="12">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G90" s="12">
-        <v>44000</v>
+        <v>18000</v>
       </c>
       <c r="H90" s="12">
-        <v>71000</v>
+        <v>30000</v>
       </c>
       <c r="I90" s="12">
-        <v>81000</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="7" t="s">
+        <v>33000</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E91" s="12">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="F91" s="12">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G91" s="12">
-        <v>44000</v>
+        <v>24000</v>
       </c>
       <c r="H91" s="12">
-        <v>71000</v>
+        <v>38000</v>
       </c>
       <c r="I91" s="12">
-        <v>81000</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="7"/>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>246</v>
+        <v>31</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E92" s="12">
-        <v>57000</v>
+        <v>18000</v>
       </c>
       <c r="F92" s="12">
-        <v>62000</v>
+        <v>20000</v>
       </c>
       <c r="G92" s="12">
-        <v>76000</v>
+        <v>24000</v>
       </c>
       <c r="H92" s="12">
-        <v>198000</v>
+        <v>38000</v>
       </c>
       <c r="I92" s="12">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>12</v>
@@ -4456,451 +4537,431 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>38</v>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="12">
-        <v>18000</v>
-      </c>
-      <c r="F94" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G94" s="12">
-        <v>24000</v>
-      </c>
-      <c r="H94" s="12">
-        <v>38000</v>
-      </c>
-      <c r="I94" s="12">
-        <v>42000</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="3" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="K94" s="7"/>
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
       </c>
       <c r="E95" s="12">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="F95" s="12">
-        <v>20000</v>
+        <v>34500</v>
       </c>
       <c r="G95" s="12">
-        <v>24000</v>
+        <v>42000</v>
       </c>
       <c r="H95" s="12">
-        <v>38000</v>
+        <v>109500</v>
       </c>
       <c r="I95" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
       </c>
       <c r="E96" s="12">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="F96" s="12">
-        <v>20000</v>
+        <v>34500</v>
       </c>
       <c r="G96" s="12">
-        <v>24000</v>
+        <v>42000</v>
       </c>
       <c r="H96" s="12">
-        <v>38000</v>
+        <v>109500</v>
       </c>
       <c r="I96" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>212</v>
+        <v>181</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
       </c>
       <c r="E97" s="12">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="F97" s="12">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="G97" s="12">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="H97" s="12">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I97" s="12">
         <v>0</v>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="J97" s="3"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
       </c>
       <c r="E98" s="12">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="F98" s="12">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="G98" s="12">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="H98" s="12">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="I98" s="12">
         <v>0</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="J98" s="3"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="E99" s="12">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="F99" s="12">
-        <v>39500</v>
+        <v>40000</v>
       </c>
       <c r="G99" s="12">
-        <v>47000</v>
+        <v>44000</v>
       </c>
       <c r="H99" s="12">
-        <v>114500</v>
+        <v>71000</v>
       </c>
       <c r="I99" s="12">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3"/>
+        <v>81000</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K99" s="7"/>
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>249</v>
+        <v>279</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="D100" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E100" s="12">
-        <v>73000</v>
+        <v>36000</v>
       </c>
       <c r="F100" s="12">
-        <v>78000</v>
+        <v>40000</v>
       </c>
       <c r="G100" s="12">
-        <v>93000</v>
+        <v>44000</v>
       </c>
       <c r="H100" s="12">
-        <v>228000</v>
+        <v>71000</v>
       </c>
       <c r="I100" s="12">
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="J100" s="3"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D101" s="5">
         <v>99</v>
       </c>
       <c r="E101" s="12">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="F101" s="12">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="12">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H101" s="12">
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="I101" s="12">
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>294</v>
+        <v>10</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="D102" s="5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E102" s="12">
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="F102" s="12">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G102" s="12">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="H102" s="12">
-        <v>0</v>
+        <v>198000</v>
       </c>
       <c r="I102" s="12">
         <v>0</v>
       </c>
       <c r="J102" s="3"/>
-      <c r="K102" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="K102" s="7"/>
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>296</v>
+        <v>10</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="5">
-        <v>99</v>
+      <c r="D103" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E103" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F103" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G103" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H103" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I103" s="12">
-        <v>0</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="7"/>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>298</v>
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="5">
-        <v>99</v>
+      <c r="D104" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E104" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F104" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G104" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H104" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I104" s="12">
-        <v>0</v>
-      </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="7"/>
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>299</v>
+        <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D105" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E105" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F105" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G105" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H105" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I105" s="12">
-        <v>0</v>
-      </c>
-      <c r="J105" s="3"/>
-      <c r="K105" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="7"/>
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D106" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E106" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F106" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G106" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H106" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I106" s="12">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="7"/>
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="5">
-        <v>99</v>
+        <v>204</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E107" s="12">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F107" s="12">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G107" s="12">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H107" s="12">
         <v>0</v>
@@ -4908,617 +4969,583 @@
       <c r="I107" s="12">
         <v>0</v>
       </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="J107" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K107" s="7"/>
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E108" s="12">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="F108" s="12">
+        <v>14000</v>
+      </c>
+      <c r="G108" s="12">
         <v>16000</v>
       </c>
-      <c r="G108" s="12">
-        <v>18000</v>
-      </c>
       <c r="H108" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I108" s="12">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="K108" s="7"/>
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>133</v>
+        <v>238</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
       </c>
       <c r="E109" s="12">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="F109" s="12">
-        <v>36000</v>
+        <v>39500</v>
       </c>
       <c r="G109" s="12">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="H109" s="12">
-        <v>67000</v>
+        <v>114500</v>
       </c>
       <c r="I109" s="12">
-        <v>77000</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>76</v>
+        <v>238</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0</v>
       </c>
       <c r="E110" s="12">
-        <v>45000</v>
+        <v>73000</v>
       </c>
       <c r="F110" s="12">
-        <v>49000</v>
+        <v>78000</v>
       </c>
       <c r="G110" s="12">
-        <v>53000</v>
+        <v>93000</v>
       </c>
       <c r="H110" s="12">
-        <v>80000</v>
+        <v>228000</v>
       </c>
       <c r="I110" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" s="3"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D111" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E111" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F111" s="12">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="G111" s="12">
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="H111" s="12">
-        <v>221000</v>
+        <v>0</v>
       </c>
       <c r="I111" s="12">
         <v>0</v>
       </c>
       <c r="J111" s="3"/>
-      <c r="K111" s="7"/>
+      <c r="K111" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E112" s="12">
-        <v>45000</v>
-      </c>
-      <c r="F112" s="12">
-        <v>49000</v>
-      </c>
-      <c r="G112" s="12">
-        <v>53000</v>
-      </c>
-      <c r="H112" s="12">
-        <v>80000</v>
-      </c>
-      <c r="I112" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K112" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D113" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E113" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F113" s="12">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="G113" s="12">
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="H113" s="12">
-        <v>221000</v>
+        <v>0</v>
       </c>
       <c r="I113" s="12">
         <v>0</v>
       </c>
       <c r="J113" s="3"/>
-      <c r="K113" s="7"/>
+      <c r="K113" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="D114" s="5">
+        <v>99</v>
       </c>
       <c r="E114" s="12">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F114" s="12">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G114" s="12">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H114" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I114" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K114" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="D115" s="5">
+        <v>99</v>
       </c>
       <c r="E115" s="12">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F115" s="12">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G115" s="12">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H115" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I115" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K115" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E116" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F116" s="12">
-        <v>16000</v>
-      </c>
-      <c r="G116" s="12">
-        <v>18000</v>
-      </c>
-      <c r="H116" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I116" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="3"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="D117" s="5">
+        <v>99</v>
       </c>
       <c r="E117" s="12">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F117" s="12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G117" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H117" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I117" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K117" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>166</v>
+        <v>291</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="D118" s="5">
+        <v>99</v>
       </c>
       <c r="E118" s="12">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F118" s="12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G118" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H118" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I118" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K118" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>13</v>
+      <c r="D119" s="5">
+        <v>99</v>
       </c>
       <c r="E119" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F119" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G119" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H119" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I119" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K119" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E120" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F120" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G120" s="12">
         <v>18000</v>
       </c>
-      <c r="F120" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G120" s="12">
-        <v>24000</v>
-      </c>
       <c r="H120" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I120" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K120" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="E121" s="12">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="F121" s="12">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="G121" s="12">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="H121" s="12">
-        <v>33000</v>
+        <v>67000</v>
       </c>
       <c r="I121" s="12">
-        <v>37000</v>
+        <v>77000</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K121" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>223</v>
+        <v>108</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="E122" s="12">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="F122" s="12">
-        <v>15000</v>
+        <v>49000</v>
       </c>
       <c r="G122" s="12">
-        <v>19000</v>
+        <v>53000</v>
       </c>
       <c r="H122" s="12">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="I122" s="12">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="K122" s="7"/>
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>224</v>
+        <v>108</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>221</v>
+        <v>66</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
       </c>
       <c r="E123" s="12">
-        <v>13000</v>
+        <v>80000</v>
       </c>
       <c r="F123" s="12">
-        <v>15000</v>
+        <v>85000</v>
       </c>
       <c r="G123" s="12">
-        <v>19000</v>
+        <v>99000</v>
       </c>
       <c r="H123" s="12">
-        <v>33000</v>
+        <v>221000</v>
       </c>
       <c r="I123" s="12">
-        <v>37000</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" s="3"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>45</v>
+        <v>108</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E124" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F124" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G124" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H124" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I124" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K124" s="7"/>
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0</v>
       </c>
       <c r="E125" s="12">
-        <v>18000</v>
+        <v>80000</v>
       </c>
       <c r="F125" s="12">
-        <v>20000</v>
+        <v>85000</v>
       </c>
       <c r="G125" s="12">
-        <v>24000</v>
+        <v>99000</v>
       </c>
       <c r="H125" s="12">
-        <v>38000</v>
+        <v>221000</v>
       </c>
       <c r="I125" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" s="3"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E126" s="12">
         <v>45000</v>
@@ -5536,22 +5563,22 @@
         <v>90000</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K126" s="7"/>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E127" s="12">
         <v>45000</v>
@@ -5569,55 +5596,55 @@
         <v>90000</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K127" s="7"/>
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E128" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F128" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G128" s="12">
         <v>18000</v>
       </c>
-      <c r="F128" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G128" s="12">
-        <v>24000</v>
-      </c>
       <c r="H128" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I128" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="K128" s="7"/>
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E129" s="12">
         <v>15000</v>
@@ -5635,22 +5662,22 @@
         <v>33000</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K129" s="7"/>
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E130" s="12">
         <v>15000</v>
@@ -5668,534 +5695,544 @@
         <v>33000</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K130" s="7"/>
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D131" s="5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E131" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F131" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G131" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H131" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I131" s="12">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3"/>
-      <c r="K131" s="7" t="s">
-        <v>307</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" s="7"/>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>309</v>
+        <v>39</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="5">
-        <v>99</v>
+      <c r="D132" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E132" s="12">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F132" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G132" s="12">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H132" s="12">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="I132" s="12">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="7" t="s">
-        <v>306</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" s="7"/>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="E133" s="12">
+        <v>13000</v>
+      </c>
+      <c r="F133" s="12">
         <v>15000</v>
       </c>
-      <c r="F133" s="12">
-        <v>16000</v>
-      </c>
       <c r="G133" s="12">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="H133" s="12">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="I133" s="12">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="K133" s="7"/>
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="E134" s="12">
+        <v>13000</v>
+      </c>
+      <c r="F134" s="12">
         <v>15000</v>
       </c>
-      <c r="F134" s="12">
-        <v>16000</v>
-      </c>
       <c r="G134" s="12">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="H134" s="12">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="I134" s="12">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="K134" s="7"/>
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>49</v>
+        <v>210</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E135" s="12">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="F135" s="12">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G135" s="12">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="H135" s="12">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="I135" s="12">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="K135" s="7"/>
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E136" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F136" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G136" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H136" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I136" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K136" s="7"/>
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E137" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F137" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G137" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H137" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I137" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K137" s="7"/>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>257</v>
+        <v>42</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D138" s="5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E138" s="12">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="F138" s="12">
-        <v>26000</v>
+        <v>49000</v>
       </c>
       <c r="G138" s="12">
-        <v>31000</v>
+        <v>53000</v>
       </c>
       <c r="H138" s="12">
         <v>80000</v>
       </c>
       <c r="I138" s="12">
-        <v>0</v>
-      </c>
-      <c r="J138" s="3"/>
+        <v>90000</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K138" s="7"/>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>258</v>
+        <v>42</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D139" s="5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E139" s="12">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="F139" s="12">
-        <v>28000</v>
+        <v>49000</v>
       </c>
       <c r="G139" s="12">
-        <v>33000</v>
+        <v>53000</v>
       </c>
       <c r="H139" s="12">
-        <v>82000</v>
+        <v>80000</v>
       </c>
       <c r="I139" s="12">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3"/>
+        <v>90000</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K139" s="7"/>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>259</v>
+        <v>42</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="5">
-        <v>0</v>
+      <c r="D140" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E140" s="12">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="F140" s="12">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="G140" s="12">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="H140" s="12">
-        <v>82000</v>
+        <v>38000</v>
       </c>
       <c r="I140" s="12">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K140" s="7"/>
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>260</v>
+        <v>162</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="5">
-        <v>0</v>
+      <c r="D141" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E141" s="12">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="F141" s="12">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="G141" s="12">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="H141" s="12">
-        <v>85000</v>
+        <v>30000</v>
       </c>
       <c r="I141" s="12">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3"/>
+        <v>33000</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="K141" s="7"/>
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>261</v>
+        <v>162</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="5">
-        <v>0</v>
+      <c r="D142" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E142" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F142" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G142" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H142" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I142" s="12">
         <v>33000</v>
       </c>
-      <c r="F142" s="12">
-        <v>34000</v>
-      </c>
-      <c r="G142" s="12">
-        <v>39000</v>
-      </c>
-      <c r="H142" s="12">
-        <v>87000</v>
-      </c>
-      <c r="I142" s="12">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3"/>
+      <c r="J142" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="K142" s="7"/>
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>13</v>
+        <v>296</v>
+      </c>
+      <c r="D143" s="5">
+        <v>99</v>
       </c>
       <c r="E143" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F143" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G143" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H143" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K143" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="3"/>
+      <c r="K143" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>52</v>
+        <v>298</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>13</v>
+      <c r="D144" s="5">
+        <v>99</v>
       </c>
       <c r="E144" s="12">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F144" s="12">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G144" s="12">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H144" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I144" s="12">
-        <v>42000</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K144" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="3"/>
+      <c r="K144" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E145" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F145" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G145" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H145" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I145" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K145" s="7"/>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>322</v>
+        <v>189</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E146" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F146" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G146" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H146" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I146" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K146" s="7"/>
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>12</v>
@@ -6225,610 +6262,602 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E148" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F148" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G148" s="12">
         <v>18000</v>
       </c>
-      <c r="F148" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G148" s="12">
-        <v>24000</v>
-      </c>
       <c r="H148" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I148" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="K148" s="7"/>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E149" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F149" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G149" s="12">
         <v>18000</v>
       </c>
-      <c r="F149" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G149" s="12">
-        <v>24000</v>
-      </c>
       <c r="H149" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I149" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K149" s="7"/>
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>119</v>
+        <v>46</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>76</v>
+        <v>243</v>
+      </c>
+      <c r="D150" s="5">
+        <v>0</v>
       </c>
       <c r="E150" s="12">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="F150" s="12">
-        <v>49000</v>
+        <v>26000</v>
       </c>
       <c r="G150" s="12">
-        <v>53000</v>
+        <v>31000</v>
       </c>
       <c r="H150" s="12">
         <v>80000</v>
       </c>
       <c r="I150" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" s="3"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>76</v>
+        <v>243</v>
+      </c>
+      <c r="D151" s="5">
+        <v>0</v>
       </c>
       <c r="E151" s="12">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="F151" s="12">
-        <v>49000</v>
+        <v>28000</v>
       </c>
       <c r="G151" s="12">
-        <v>53000</v>
+        <v>33000</v>
       </c>
       <c r="H151" s="12">
-        <v>80000</v>
+        <v>82000</v>
       </c>
       <c r="I151" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" s="3"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>141</v>
+      <c r="D152" s="5">
+        <v>0</v>
       </c>
       <c r="E152" s="12">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="F152" s="12">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="G152" s="12">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="H152" s="12">
-        <v>30000</v>
+        <v>82000</v>
       </c>
       <c r="I152" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" s="3"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>141</v>
+      <c r="D153" s="5">
+        <v>0</v>
       </c>
       <c r="E153" s="12">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="F153" s="12">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="G153" s="12">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="H153" s="12">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="I153" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" s="3"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>141</v>
+      <c r="D154" s="5">
+        <v>0</v>
       </c>
       <c r="E154" s="12">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="F154" s="12">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="G154" s="12">
-        <v>18000</v>
+        <v>39000</v>
       </c>
       <c r="H154" s="12">
-        <v>30000</v>
+        <v>87000</v>
       </c>
       <c r="I154" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" s="3"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>203</v>
+        <v>48</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E155" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F155" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G155" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H155" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I155" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K155" s="7"/>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>262</v>
+        <v>48</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="5">
-        <v>0</v>
+      <c r="D156" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E156" s="12">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="F156" s="12">
-        <v>39000</v>
+        <v>20000</v>
       </c>
       <c r="G156" s="12">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="H156" s="12">
-        <v>99000</v>
+        <v>38000</v>
       </c>
       <c r="I156" s="12">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K156" s="7"/>
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>263</v>
+        <v>48</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E157" s="12">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F157" s="12">
-        <v>42000</v>
+        <v>49000</v>
       </c>
       <c r="G157" s="12">
-        <v>48000</v>
+        <v>53000</v>
       </c>
       <c r="H157" s="12">
-        <v>102000</v>
+        <v>80000</v>
       </c>
       <c r="I157" s="12">
-        <v>0</v>
-      </c>
-      <c r="J157" s="3"/>
+        <v>90000</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K157" s="7"/>
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>179</v>
+        <v>48</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E158" s="12">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F158" s="12">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="G158" s="12">
-        <v>18000</v>
+        <v>53000</v>
       </c>
       <c r="H158" s="12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I158" s="12">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K158" s="7"/>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>181</v>
+        <v>51</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E159" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F159" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G159" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H159" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I159" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K159" s="7"/>
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>182</v>
+        <v>53</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E160" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F160" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G160" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H160" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I160" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="K160" s="7"/>
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>183</v>
+        <v>53</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E161" s="12">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F161" s="12">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G161" s="12">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H161" s="12">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="I161" s="12">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K161" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D162" s="5">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E162" s="12">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="F162" s="12">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="G162" s="12">
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="H162" s="12">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I162" s="12">
-        <v>0</v>
-      </c>
-      <c r="J162" s="3"/>
-      <c r="K162" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K162" s="7"/>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D163" s="5">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E163" s="12">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="F163" s="12">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="G163" s="12">
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="H163" s="12">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I163" s="12">
-        <v>0</v>
-      </c>
-      <c r="J163" s="3"/>
-      <c r="K163" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K163" s="7"/>
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>231</v>
+        <v>170</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="E164" s="12">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="F164" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G164" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H164" s="12">
         <v>30000</v>
       </c>
-      <c r="G164" s="12">
-        <v>34000</v>
-      </c>
-      <c r="H164" s="12">
-        <v>0</v>
-      </c>
       <c r="I164" s="12">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K164" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K164" s="7"/>
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E165" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F165" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G165" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H165" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I165" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K165" s="7"/>
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E166" s="12">
         <v>15000</v>
@@ -6846,253 +6875,249 @@
         <v>33000</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K166" s="7"/>
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E167" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F167" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G167" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H167" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I167" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K167" s="7"/>
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>57</v>
+        <v>185</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E168" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F168" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G168" s="12">
         <v>18000</v>
       </c>
-      <c r="F168" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G168" s="12">
-        <v>24000</v>
-      </c>
       <c r="H168" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I168" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="K168" s="7"/>
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E169" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F169" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G169" s="12">
         <v>18000</v>
       </c>
-      <c r="F169" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G169" s="12">
-        <v>24000</v>
-      </c>
       <c r="H169" s="12">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="I169" s="12">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="K169" s="7"/>
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>141</v>
+      <c r="D170" s="5">
+        <v>0</v>
       </c>
       <c r="E170" s="12">
-        <v>15000</v>
+        <v>37000</v>
       </c>
       <c r="F170" s="12">
-        <v>16000</v>
+        <v>39000</v>
       </c>
       <c r="G170" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="H170" s="12">
-        <v>30000</v>
+        <v>99000</v>
       </c>
       <c r="I170" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" s="3"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0</v>
       </c>
       <c r="E171" s="12">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F171" s="12">
-        <v>49000</v>
+        <v>42000</v>
       </c>
       <c r="G171" s="12">
-        <v>53000</v>
+        <v>48000</v>
       </c>
       <c r="H171" s="12">
-        <v>80000</v>
+        <v>102000</v>
       </c>
       <c r="I171" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" s="3"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>126</v>
+        <v>357</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E172" s="12">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F172" s="12">
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G172" s="12">
-        <v>53000</v>
+        <v>18000</v>
       </c>
       <c r="H172" s="12">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="I172" s="12">
-        <v>90000</v>
+        <v>33000</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K172" s="7"/>
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E173" s="12">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="F173" s="12">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="G173" s="12">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="H173" s="12">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="I173" s="12">
-        <v>77000</v>
+        <v>33000</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K173" s="7"/>
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E174" s="12">
         <v>15000</v>
@@ -7110,55 +7135,55 @@
         <v>33000</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K174" s="7"/>
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E175" s="12">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="F175" s="12">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="G175" s="12">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="H175" s="12">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="I175" s="12">
-        <v>77000</v>
+        <v>33000</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K175" s="7"/>
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E176" s="12">
         <v>15000</v>
@@ -7176,334 +7201,278 @@
         <v>33000</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K176" s="7"/>
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>128</v>
+        <v>338</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E177" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F177" s="12">
-        <v>16000</v>
-      </c>
-      <c r="G177" s="12">
-        <v>18000</v>
-      </c>
-      <c r="H177" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I177" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="3"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>129</v>
+        <v>300</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>76</v>
+        <v>256</v>
+      </c>
+      <c r="D178" s="5">
+        <v>99</v>
       </c>
       <c r="E178" s="12">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F178" s="12">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G178" s="12">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H178" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I178" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K178" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="3"/>
+      <c r="K178" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>130</v>
+        <v>302</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>76</v>
+        <v>256</v>
+      </c>
+      <c r="D179" s="5">
+        <v>99</v>
       </c>
       <c r="E179" s="12">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F179" s="12">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G179" s="12">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H179" s="12">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I179" s="12">
-        <v>90000</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K179" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="3"/>
+      <c r="K179" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>191</v>
+        <v>341</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E180" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F180" s="12">
-        <v>16000</v>
-      </c>
-      <c r="G180" s="12">
-        <v>18000</v>
-      </c>
-      <c r="H180" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I180" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="3"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>192</v>
+        <v>341</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E181" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F181" s="12">
-        <v>16000</v>
-      </c>
-      <c r="G181" s="12">
-        <v>18000</v>
-      </c>
-      <c r="H181" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I181" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="3"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>193</v>
+        <v>344</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F182" s="12">
-        <v>16000</v>
-      </c>
-      <c r="G182" s="12">
-        <v>18000</v>
-      </c>
-      <c r="H182" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I182" s="12">
-        <v>33000</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="3"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>61</v>
+        <v>221</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="E183" s="12">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="F183" s="12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G183" s="12">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="H183" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I183" s="12">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="E184" s="12">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="F184" s="12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G184" s="12">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="H184" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I184" s="12">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>63</v>
+        <v>221</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="E185" s="12">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="F185" s="12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G185" s="12">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="H185" s="12">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I185" s="12">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>314</v>
+        <v>221</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="5">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E186" s="12">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="F186" s="12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G186" s="12">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="H186" s="12">
         <v>0</v>
@@ -7511,93 +7480,91 @@
       <c r="I186" s="12">
         <v>0</v>
       </c>
-      <c r="J186" s="3"/>
+      <c r="J186" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="K186" s="7" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>65</v>
+        <v>117</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E187" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F187" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G187" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H187" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I187" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K187" s="7"/>
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B188" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D188" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E188" s="12">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="F188" s="12">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G188" s="12">
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="H188" s="12">
-        <v>38000</v>
+        <v>80000</v>
       </c>
       <c r="I188" s="12">
-        <v>42000</v>
+        <v>90000</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K188" s="7"/>
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E189" s="12">
         <v>15000</v>
@@ -7615,308 +7582,980 @@
         <v>33000</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K189" s="7"/>
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1">
-      <c r="B190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
+      <c r="A190" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E190" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F190" s="12">
+        <v>49000</v>
+      </c>
+      <c r="G190" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H190" s="12">
+        <v>80000</v>
+      </c>
+      <c r="I190" s="12">
+        <v>90000</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K190" s="7"/>
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1">
-      <c r="B191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
+      <c r="A191" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F191" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G191" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H191" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I191" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K191" s="7"/>
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1">
-      <c r="B192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="2:9" ht="12.75" customHeight="1">
+      <c r="A192" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F192" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G192" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H192" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I192" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A193" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F193" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G193" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H193" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I193" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A194" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E194" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F194" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G194" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H194" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I194" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A195" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E195" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F195" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G195" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H195" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I195" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A196" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E196" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F196" s="12">
+        <v>49000</v>
+      </c>
+      <c r="G196" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H196" s="12">
+        <v>80000</v>
+      </c>
+      <c r="I196" s="12">
+        <v>90000</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A197" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E197" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F197" s="12">
+        <v>49000</v>
+      </c>
+      <c r="G197" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H197" s="12">
+        <v>80000</v>
+      </c>
+      <c r="I197" s="12">
+        <v>90000</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A198" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E198" s="12">
+        <v>32000</v>
+      </c>
+      <c r="F198" s="12">
+        <v>36000</v>
+      </c>
+      <c r="G198" s="12">
+        <v>40000</v>
+      </c>
+      <c r="H198" s="12">
+        <v>67000</v>
+      </c>
+      <c r="I198" s="12">
+        <v>77000</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A199" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F199" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G199" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H199" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I199" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A200" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E200" s="12">
+        <v>32000</v>
+      </c>
+      <c r="F200" s="12">
+        <v>36000</v>
+      </c>
+      <c r="G200" s="12">
+        <v>40000</v>
+      </c>
+      <c r="H200" s="12">
+        <v>67000</v>
+      </c>
+      <c r="I200" s="12">
+        <v>77000</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A201" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E201" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F201" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G201" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H201" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I201" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K201" s="7"/>
+    </row>
+    <row r="202" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A202" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E202" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F202" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G202" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H202" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I202" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K202" s="7"/>
+    </row>
+    <row r="203" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A203" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E203" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F203" s="12">
+        <v>49000</v>
+      </c>
+      <c r="G203" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H203" s="12">
+        <v>80000</v>
+      </c>
+      <c r="I203" s="12">
+        <v>90000</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K203" s="7"/>
+    </row>
+    <row r="204" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A204" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E204" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F204" s="12">
+        <v>49000</v>
+      </c>
+      <c r="G204" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H204" s="12">
+        <v>80000</v>
+      </c>
+      <c r="I204" s="12">
+        <v>90000</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K204" s="7"/>
+    </row>
+    <row r="205" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A205" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E205" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F205" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G205" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H205" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I205" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K205" s="7"/>
+    </row>
+    <row r="206" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A206" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F206" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G206" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H206" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I206" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K206" s="7"/>
+    </row>
+    <row r="207" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A207" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E207" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F207" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G207" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H207" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I207" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K207" s="7"/>
+    </row>
+    <row r="208" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A208" s="3"/>
+      <c r="B208" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A209" s="3"/>
+      <c r="B209" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="7"/>
+    </row>
+    <row r="210" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A210" s="3"/>
+      <c r="B210" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="7"/>
+    </row>
+    <row r="211" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A211" s="3"/>
+      <c r="B211" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="7"/>
+    </row>
+    <row r="212" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A212" s="3"/>
+      <c r="B212" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="7"/>
+    </row>
+    <row r="213" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A213" s="3"/>
+      <c r="B213" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="7"/>
+    </row>
+    <row r="214" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A214" s="3"/>
+      <c r="B214" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="7"/>
+    </row>
+    <row r="215" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A215" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F215" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G215" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H215" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I215" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A216" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F216" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G216" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H216" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I216" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K216" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A217" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F217" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G217" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H217" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I217" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K217" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A218" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="5">
+        <v>99</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0</v>
+      </c>
+      <c r="F218" s="12">
+        <v>0</v>
+      </c>
+      <c r="G218" s="12">
+        <v>0</v>
+      </c>
+      <c r="H218" s="12">
+        <v>0</v>
+      </c>
+      <c r="I218" s="12">
+        <v>0</v>
+      </c>
+      <c r="J218" s="3"/>
+      <c r="K218" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A219" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F219" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G219" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H219" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I219" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A220" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F220" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G220" s="12">
+        <v>24000</v>
+      </c>
+      <c r="H220" s="12">
+        <v>38000</v>
+      </c>
+      <c r="I220" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A221" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="7"/>
+    </row>
+    <row r="222" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A222" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E222" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F222" s="12">
+        <v>16000</v>
+      </c>
+      <c r="G222" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H222" s="12">
+        <v>30000</v>
+      </c>
+      <c r="I222" s="12">
+        <v>33000</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K222" s="7"/>
+    </row>
+    <row r="223" spans="1:11" ht="12.75" customHeight="1">
       <c r="B223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
@@ -7925,7 +8564,7 @@
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="2:9" ht="12.75" customHeight="1">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1">
       <c r="B224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="2"/>
@@ -15251,9 +15890,306 @@
       <c r="H1037" s="2"/>
       <c r="I1037" s="2"/>
     </row>
+    <row r="1038" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1038" s="1"/>
+      <c r="D1038" s="1"/>
+      <c r="E1038" s="2"/>
+      <c r="F1038" s="2"/>
+      <c r="G1038" s="2"/>
+      <c r="H1038" s="2"/>
+      <c r="I1038" s="2"/>
+    </row>
+    <row r="1039" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1039" s="1"/>
+      <c r="D1039" s="1"/>
+      <c r="E1039" s="2"/>
+      <c r="F1039" s="2"/>
+      <c r="G1039" s="2"/>
+      <c r="H1039" s="2"/>
+      <c r="I1039" s="2"/>
+    </row>
+    <row r="1040" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1040" s="1"/>
+      <c r="D1040" s="1"/>
+      <c r="E1040" s="2"/>
+      <c r="F1040" s="2"/>
+      <c r="G1040" s="2"/>
+      <c r="H1040" s="2"/>
+      <c r="I1040" s="2"/>
+    </row>
+    <row r="1041" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1041" s="1"/>
+      <c r="D1041" s="1"/>
+      <c r="E1041" s="2"/>
+      <c r="F1041" s="2"/>
+      <c r="G1041" s="2"/>
+      <c r="H1041" s="2"/>
+      <c r="I1041" s="2"/>
+    </row>
+    <row r="1042" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1042" s="1"/>
+      <c r="D1042" s="1"/>
+      <c r="E1042" s="2"/>
+      <c r="F1042" s="2"/>
+      <c r="G1042" s="2"/>
+      <c r="H1042" s="2"/>
+      <c r="I1042" s="2"/>
+    </row>
+    <row r="1043" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1043" s="1"/>
+      <c r="D1043" s="1"/>
+      <c r="E1043" s="2"/>
+      <c r="F1043" s="2"/>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2"/>
+    </row>
+    <row r="1044" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1044" s="1"/>
+      <c r="D1044" s="1"/>
+      <c r="E1044" s="2"/>
+      <c r="F1044" s="2"/>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2"/>
+    </row>
+    <row r="1045" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1045" s="1"/>
+      <c r="D1045" s="1"/>
+      <c r="E1045" s="2"/>
+      <c r="F1045" s="2"/>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2"/>
+    </row>
+    <row r="1046" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1046" s="1"/>
+      <c r="D1046" s="1"/>
+      <c r="E1046" s="2"/>
+      <c r="F1046" s="2"/>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2"/>
+    </row>
+    <row r="1047" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1047" s="1"/>
+      <c r="D1047" s="1"/>
+      <c r="E1047" s="2"/>
+      <c r="F1047" s="2"/>
+      <c r="G1047" s="2"/>
+      <c r="H1047" s="2"/>
+      <c r="I1047" s="2"/>
+    </row>
+    <row r="1048" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1048" s="1"/>
+      <c r="D1048" s="1"/>
+      <c r="E1048" s="2"/>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
+      <c r="H1048" s="2"/>
+      <c r="I1048" s="2"/>
+    </row>
+    <row r="1049" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1049" s="1"/>
+      <c r="D1049" s="1"/>
+      <c r="E1049" s="2"/>
+      <c r="F1049" s="2"/>
+      <c r="G1049" s="2"/>
+      <c r="H1049" s="2"/>
+      <c r="I1049" s="2"/>
+    </row>
+    <row r="1050" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1050" s="1"/>
+      <c r="D1050" s="1"/>
+      <c r="E1050" s="2"/>
+      <c r="F1050" s="2"/>
+      <c r="G1050" s="2"/>
+      <c r="H1050" s="2"/>
+      <c r="I1050" s="2"/>
+    </row>
+    <row r="1051" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1051" s="1"/>
+      <c r="D1051" s="1"/>
+      <c r="E1051" s="2"/>
+      <c r="F1051" s="2"/>
+      <c r="G1051" s="2"/>
+      <c r="H1051" s="2"/>
+      <c r="I1051" s="2"/>
+    </row>
+    <row r="1052" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1052" s="1"/>
+      <c r="D1052" s="1"/>
+      <c r="E1052" s="2"/>
+      <c r="F1052" s="2"/>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2"/>
+      <c r="I1052" s="2"/>
+    </row>
+    <row r="1053" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1053" s="1"/>
+      <c r="D1053" s="1"/>
+      <c r="E1053" s="2"/>
+      <c r="F1053" s="2"/>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2"/>
+      <c r="I1053" s="2"/>
+    </row>
+    <row r="1054" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1054" s="1"/>
+      <c r="D1054" s="1"/>
+      <c r="E1054" s="2"/>
+      <c r="F1054" s="2"/>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2"/>
+      <c r="I1054" s="2"/>
+    </row>
+    <row r="1055" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1055" s="1"/>
+      <c r="D1055" s="1"/>
+      <c r="E1055" s="2"/>
+      <c r="F1055" s="2"/>
+      <c r="G1055" s="2"/>
+      <c r="H1055" s="2"/>
+      <c r="I1055" s="2"/>
+    </row>
+    <row r="1056" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1056" s="1"/>
+      <c r="D1056" s="1"/>
+      <c r="E1056" s="2"/>
+      <c r="F1056" s="2"/>
+      <c r="G1056" s="2"/>
+      <c r="H1056" s="2"/>
+      <c r="I1056" s="2"/>
+    </row>
+    <row r="1057" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1057" s="1"/>
+      <c r="D1057" s="1"/>
+      <c r="E1057" s="2"/>
+      <c r="F1057" s="2"/>
+      <c r="G1057" s="2"/>
+      <c r="H1057" s="2"/>
+      <c r="I1057" s="2"/>
+    </row>
+    <row r="1058" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1058" s="1"/>
+      <c r="D1058" s="1"/>
+      <c r="E1058" s="2"/>
+      <c r="F1058" s="2"/>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2"/>
+      <c r="I1058" s="2"/>
+    </row>
+    <row r="1059" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1059" s="1"/>
+      <c r="D1059" s="1"/>
+      <c r="E1059" s="2"/>
+      <c r="F1059" s="2"/>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2"/>
+      <c r="I1059" s="2"/>
+    </row>
+    <row r="1060" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1060" s="1"/>
+      <c r="D1060" s="1"/>
+      <c r="E1060" s="2"/>
+      <c r="F1060" s="2"/>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2"/>
+      <c r="I1060" s="2"/>
+    </row>
+    <row r="1061" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1061" s="1"/>
+      <c r="D1061" s="1"/>
+      <c r="E1061" s="2"/>
+      <c r="F1061" s="2"/>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2"/>
+    </row>
+    <row r="1062" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1062" s="1"/>
+      <c r="D1062" s="1"/>
+      <c r="E1062" s="2"/>
+      <c r="F1062" s="2"/>
+      <c r="G1062" s="2"/>
+      <c r="H1062" s="2"/>
+      <c r="I1062" s="2"/>
+    </row>
+    <row r="1063" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="2"/>
+      <c r="F1063" s="2"/>
+      <c r="G1063" s="2"/>
+      <c r="H1063" s="2"/>
+      <c r="I1063" s="2"/>
+    </row>
+    <row r="1064" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1064" s="1"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="2"/>
+      <c r="F1064" s="2"/>
+      <c r="G1064" s="2"/>
+      <c r="H1064" s="2"/>
+      <c r="I1064" s="2"/>
+    </row>
+    <row r="1065" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1065" s="1"/>
+      <c r="D1065" s="1"/>
+      <c r="E1065" s="2"/>
+      <c r="F1065" s="2"/>
+      <c r="G1065" s="2"/>
+      <c r="H1065" s="2"/>
+      <c r="I1065" s="2"/>
+    </row>
+    <row r="1066" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1066" s="1"/>
+      <c r="D1066" s="1"/>
+      <c r="E1066" s="2"/>
+      <c r="F1066" s="2"/>
+      <c r="G1066" s="2"/>
+      <c r="H1066" s="2"/>
+      <c r="I1066" s="2"/>
+    </row>
+    <row r="1067" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1067" s="1"/>
+      <c r="D1067" s="1"/>
+      <c r="E1067" s="2"/>
+      <c r="F1067" s="2"/>
+      <c r="G1067" s="2"/>
+      <c r="H1067" s="2"/>
+      <c r="I1067" s="2"/>
+    </row>
+    <row r="1068" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1068" s="1"/>
+      <c r="D1068" s="1"/>
+      <c r="E1068" s="2"/>
+      <c r="F1068" s="2"/>
+      <c r="G1068" s="2"/>
+      <c r="H1068" s="2"/>
+      <c r="I1068" s="2"/>
+    </row>
+    <row r="1069" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1069" s="1"/>
+      <c r="D1069" s="1"/>
+      <c r="E1069" s="2"/>
+      <c r="F1069" s="2"/>
+      <c r="G1069" s="2"/>
+      <c r="H1069" s="2"/>
+      <c r="I1069" s="2"/>
+    </row>
+    <row r="1070" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B1070" s="1"/>
+      <c r="D1070" s="1"/>
+      <c r="E1070" s="2"/>
+      <c r="F1070" s="2"/>
+      <c r="G1070" s="2"/>
+      <c r="H1070" s="2"/>
+      <c r="I1070" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K189">
-    <sortCondition ref="B154:B189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K222">
+    <sortCondition ref="B168:B222"/>
   </sortState>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F96AE0-C0EE-48CA-A0E8-66DFEF515500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84795878-A16D-4551-8571-4C0EBD5F7C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,10 +1026,6 @@
   </si>
   <si>
     <t>RV250A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SB210</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2138,6 +2134,9 @@
       </rPr>
       <t>ボタン付</t>
     </r>
+  </si>
+  <si>
+    <t>SB210</t>
   </si>
 </sst>
 </file>
@@ -2497,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2526,13 +2525,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>4</v>
@@ -2556,7 +2555,7 @@
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -2569,7 +2568,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="6"/>
       <c r="M2" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1">
@@ -2604,15 +2603,15 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>213</v>
@@ -2635,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -2672,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -2709,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -2746,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -2775,7 +2774,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
@@ -2783,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -2812,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
@@ -2820,7 +2819,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>49</v>
@@ -2849,7 +2848,7 @@
         <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
@@ -2857,7 +2856,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
@@ -2890,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
@@ -2919,7 +2918,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1">
@@ -2927,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>49</v>
@@ -2956,7 +2955,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1">
@@ -2964,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -2993,7 +2992,7 @@
         <v>55</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1">
@@ -3001,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>49</v>
@@ -3016,15 +3015,15 @@
       <c r="K15" s="10"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>284</v>
@@ -3039,7 +3038,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1">
@@ -3060,12 +3059,12 @@
       <c r="K17" s="10"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>277</v>
@@ -3083,7 +3082,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1">
@@ -3155,7 +3154,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1">
@@ -3192,7 +3191,7 @@
         <v>55</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1">
@@ -3229,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
@@ -3266,7 +3265,7 @@
         <v>107</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
@@ -3338,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1">
@@ -3346,7 +3345,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
@@ -3375,7 +3374,7 @@
         <v>55</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1">
@@ -3412,7 +3411,7 @@
         <v>107</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1">
@@ -3449,7 +3448,7 @@
         <v>55</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1">
@@ -3486,7 +3485,7 @@
         <v>107</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1">
@@ -3523,7 +3522,7 @@
         <v>107</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1">
@@ -3566,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>192</v>
@@ -3647,7 +3646,7 @@
         <v>107</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1">
@@ -3725,7 +3724,7 @@
         <v>214</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>297</v>
@@ -3777,15 +3776,15 @@
         <v>55</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -3798,15 +3797,15 @@
       <c r="K39" s="10"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
@@ -3819,15 +3818,15 @@
       <c r="K40" s="10"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -3840,15 +3839,15 @@
       <c r="K41" s="10"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
@@ -3861,7 +3860,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
@@ -3898,7 +3897,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
@@ -3935,7 +3934,7 @@
         <v>107</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
@@ -3972,7 +3971,7 @@
         <v>107</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
@@ -4009,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1">
@@ -4046,7 +4045,7 @@
         <v>55</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
@@ -4054,7 +4053,7 @@
         <v>70</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>49</v>
@@ -4083,7 +4082,7 @@
         <v>55</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1">
@@ -4120,7 +4119,7 @@
         <v>55</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1">
@@ -4128,7 +4127,7 @@
         <v>72</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
@@ -4157,7 +4156,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1">
@@ -4202,7 +4201,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
@@ -4305,15 +4304,15 @@
         <v>107</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
@@ -4342,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75" customHeight="1">
@@ -4350,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
@@ -4379,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" customHeight="1">
@@ -4416,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="12.75" customHeight="1">
@@ -4424,7 +4423,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
@@ -4453,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="12.75" customHeight="1">
@@ -4490,7 +4489,7 @@
         <v>55</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="12.75" customHeight="1">
@@ -4498,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>49</v>
@@ -4527,7 +4526,7 @@
         <v>55</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="12.75" customHeight="1">
@@ -4535,7 +4534,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>49</v>
@@ -4564,7 +4563,7 @@
         <v>55</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="12.75" customHeight="1">
@@ -4572,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>49</v>
@@ -4601,7 +4600,7 @@
         <v>55</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="12.75" customHeight="1">
@@ -4646,7 +4645,7 @@
         <v>19</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>10</v>
@@ -4720,7 +4719,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>49</v>
@@ -4823,7 +4822,7 @@
         <v>12</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="12.75" customHeight="1">
@@ -4860,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="12.75" customHeight="1">
@@ -4897,7 +4896,7 @@
         <v>55</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1">
@@ -4905,7 +4904,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>49</v>
@@ -4934,7 +4933,7 @@
         <v>55</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="12.75" customHeight="1">
@@ -4955,15 +4954,15 @@
       <c r="K72" s="10"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>284</v>
@@ -4978,15 +4977,15 @@
       <c r="K73" s="10"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>284</v>
@@ -5001,7 +5000,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1">
@@ -5135,7 +5134,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="12.75" customHeight="1">
@@ -5158,7 +5157,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="12.75" customHeight="1">
@@ -5299,10 +5298,10 @@
     </row>
     <row r="84" spans="1:13" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>284</v>
@@ -5317,15 +5316,15 @@
       <c r="K84" s="10"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>284</v>
@@ -5340,7 +5339,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="12.75" customHeight="1">
@@ -5416,7 +5415,7 @@
     <row r="88" spans="1:13" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="5"/>
@@ -5429,15 +5428,15 @@
       <c r="K88" s="10"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="5"/>
@@ -5459,18 +5458,18 @@
         <v>45000</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>297</v>
@@ -5494,18 +5493,18 @@
         <v>46000</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>297</v>
@@ -5529,18 +5528,18 @@
         <v>46000</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>297</v>
@@ -5564,18 +5563,18 @@
         <v>50000</v>
       </c>
       <c r="L92" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M92" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>297</v>
@@ -5599,18 +5598,18 @@
         <v>50000</v>
       </c>
       <c r="L93" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M93" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>297</v>
@@ -5634,18 +5633,18 @@
         <v>50000</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>297</v>
@@ -5669,18 +5668,18 @@
         <v>45000</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>297</v>
@@ -5704,18 +5703,18 @@
         <v>46000</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>297</v>
@@ -5739,10 +5738,10 @@
         <v>46000</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="12.75" customHeight="1">
@@ -5779,7 +5778,7 @@
         <v>166</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="12.75" customHeight="1">
@@ -5859,10 +5858,10 @@
         <v>278</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -5957,7 +5956,7 @@
         <v>222</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>213</v>
@@ -5972,7 +5971,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="12.75" customHeight="1">
@@ -6050,7 +6049,7 @@
         <v>225</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>297</v>
@@ -6108,7 +6107,7 @@
         <v>222</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>213</v>
@@ -6123,12 +6122,12 @@
       <c r="K110" s="10"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>229</v>
@@ -6163,10 +6162,10 @@
     </row>
     <row r="112" spans="1:13" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>213</v>
@@ -6292,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>10</v>
@@ -6321,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="12.75" customHeight="1">
@@ -6329,7 +6328,7 @@
         <v>23</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>10</v>
@@ -6358,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="12.75" customHeight="1">
@@ -6366,7 +6365,7 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>284</v>
@@ -6381,7 +6380,7 @@
       <c r="K118" s="10"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="12.75" customHeight="1">
@@ -6389,7 +6388,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="5"/>
@@ -6402,21 +6401,21 @@
       <c r="K119" s="10"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -6427,21 +6426,21 @@
       <c r="K120" s="10"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -6452,7 +6451,7 @@
       <c r="K121" s="10"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="12.75" customHeight="1">
@@ -6489,7 +6488,7 @@
         <v>107</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="12.75" customHeight="1">
@@ -6561,7 +6560,7 @@
         <v>12</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="12.75" customHeight="1">
@@ -6569,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>10</v>
@@ -6598,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="12.75" customHeight="1">
@@ -6635,13 +6634,13 @@
         <v>12</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="12.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>10</v>
@@ -6656,7 +6655,7 @@
       <c r="K127" s="10"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="12.75" customHeight="1">
@@ -6682,10 +6681,10 @@
     </row>
     <row r="129" spans="1:13" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>297</v>
@@ -6709,10 +6708,10 @@
         <v>32000</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="12.75" customHeight="1">
@@ -6720,7 +6719,7 @@
         <v>145</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>297</v>
@@ -6742,10 +6741,10 @@
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="12.75" customHeight="1">
@@ -6753,7 +6752,7 @@
         <v>145</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>297</v>
@@ -6775,10 +6774,10 @@
       </c>
       <c r="K131" s="10"/>
       <c r="L131" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="12.75" customHeight="1">
@@ -6786,7 +6785,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>284</v>
@@ -6801,7 +6800,7 @@
       <c r="K132" s="10"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="12.75" customHeight="1">
@@ -6809,7 +6808,7 @@
         <v>145</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>284</v>
@@ -6824,7 +6823,7 @@
       <c r="K133" s="10"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="12.75" customHeight="1">
@@ -6859,7 +6858,7 @@
       </c>
       <c r="L134" s="3"/>
       <c r="M134" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="12.75" customHeight="1">
@@ -6894,7 +6893,7 @@
       </c>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="12.75" customHeight="1">
@@ -6902,7 +6901,7 @@
         <v>145</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>297</v>
@@ -6925,7 +6924,7 @@
       <c r="K136" s="10"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="12.75" customHeight="1">
@@ -6933,7 +6932,7 @@
         <v>145</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>297</v>
@@ -6956,7 +6955,7 @@
       <c r="K137" s="10"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="12.75" customHeight="1">
@@ -7030,7 +7029,7 @@
         <v>145</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>284</v>
@@ -7045,7 +7044,7 @@
       <c r="K140" s="10"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="12.75" customHeight="1">
@@ -7053,7 +7052,7 @@
         <v>145</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>284</v>
@@ -7068,15 +7067,15 @@
       <c r="K141" s="10"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>297</v>
@@ -7100,18 +7099,18 @@
         <v>28000</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>297</v>
@@ -7135,18 +7134,18 @@
         <v>28000</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>297</v>
@@ -7170,18 +7169,18 @@
         <v>30000</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>297</v>
@@ -7205,10 +7204,10 @@
         <v>30000</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="12.75" customHeight="1">
@@ -7287,10 +7286,10 @@
     </row>
     <row r="148" spans="1:13" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>284</v>
@@ -7305,15 +7304,15 @@
       <c r="K148" s="10"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>284</v>
@@ -7328,15 +7327,15 @@
       <c r="K149" s="10"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>284</v>
@@ -7351,15 +7350,15 @@
       <c r="K150" s="10"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>284</v>
@@ -7374,7 +7373,7 @@
       <c r="K151" s="10"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="12.75" customHeight="1">
@@ -7444,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="12.75" customHeight="1">
@@ -7452,7 +7451,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>10</v>
@@ -7481,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="12.75" customHeight="1">
@@ -7518,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="12.75" customHeight="1">
@@ -7526,7 +7525,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>10</v>
@@ -7555,7 +7554,7 @@
         <v>12</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="12.75" customHeight="1">
@@ -7592,7 +7591,7 @@
         <v>166</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="12.75" customHeight="1">
@@ -7600,7 +7599,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>164</v>
@@ -7629,7 +7628,7 @@
         <v>166</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="12.75" customHeight="1">
@@ -7664,7 +7663,7 @@
       </c>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="12.75" customHeight="1">
@@ -7705,17 +7704,17 @@
         <v>9</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G161" s="13">
         <v>21000</v>
@@ -7733,10 +7732,10 @@
         <v>45000</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="12.75" customHeight="1">
@@ -7744,17 +7743,17 @@
         <v>9</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G162" s="13">
         <v>21000</v>
@@ -7772,18 +7771,18 @@
         <v>45000</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>284</v>
@@ -7798,15 +7797,15 @@
       <c r="K163" s="10"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>284</v>
@@ -7821,15 +7820,15 @@
       <c r="K164" s="10"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>284</v>
@@ -7844,15 +7843,15 @@
       <c r="K165" s="10"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>284</v>
@@ -7867,15 +7866,15 @@
       <c r="K166" s="10"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>284</v>
@@ -7890,15 +7889,15 @@
       <c r="K167" s="10"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>284</v>
@@ -7913,15 +7912,15 @@
       <c r="K168" s="10"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>284</v>
@@ -7936,15 +7935,15 @@
       <c r="K169" s="10"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>284</v>
@@ -7959,15 +7958,15 @@
       <c r="K170" s="10"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>284</v>
@@ -7982,15 +7981,15 @@
       <c r="K171" s="10"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>284</v>
@@ -8005,7 +8004,7 @@
       <c r="K172" s="10"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="12.75" customHeight="1">
@@ -8369,10 +8368,10 @@
     </row>
     <row r="184" spans="1:13" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>284</v>
@@ -8387,15 +8386,15 @@
       <c r="K184" s="10"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>284</v>
@@ -8410,13 +8409,13 @@
       <c r="K185" s="10"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="12.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>297</v>
@@ -8435,7 +8434,7 @@
     <row r="187" spans="1:13" ht="12.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>297</v>
@@ -8485,7 +8484,7 @@
         <v>55</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="12.75" customHeight="1">
@@ -8520,7 +8519,7 @@
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="12.75" customHeight="1">
@@ -8557,7 +8556,7 @@
         <v>55</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="12.75" customHeight="1">
@@ -8592,7 +8591,7 @@
       </c>
       <c r="L191" s="3"/>
       <c r="M191" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="12.75" customHeight="1">
@@ -8629,7 +8628,7 @@
         <v>55</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="12.75" customHeight="1">
@@ -8666,7 +8665,7 @@
         <v>55</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="12.75" customHeight="1">
@@ -8703,7 +8702,7 @@
         <v>107</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="12.75" customHeight="1">
@@ -8711,7 +8710,7 @@
         <v>126</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>10</v>
@@ -8740,15 +8739,15 @@
         <v>107</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="12.75" customHeight="1">
       <c r="A196" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>297</v>
@@ -8773,15 +8772,15 @@
       </c>
       <c r="L196" s="3"/>
       <c r="M196" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="12.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>297</v>
@@ -8806,15 +8805,15 @@
       </c>
       <c r="L197" s="3"/>
       <c r="M197" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="12.75" customHeight="1">
       <c r="A198" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>284</v>
@@ -8829,15 +8828,15 @@
       <c r="K198" s="10"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>297</v>
@@ -8862,7 +8861,7 @@
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="12.75" customHeight="1">
@@ -8904,7 +8903,7 @@
       <c r="A201" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -8940,7 +8939,7 @@
         <v>29</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>10</v>
@@ -9109,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="12.75" customHeight="1">
@@ -9146,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="12.75" customHeight="1">
@@ -9183,7 +9182,7 @@
         <v>55</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="12.75" customHeight="1">
@@ -9220,7 +9219,7 @@
         <v>55</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="12.75" customHeight="1">
@@ -9257,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="12.75" customHeight="1">
@@ -9294,7 +9293,7 @@
         <v>107</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="12.75" customHeight="1">
@@ -9302,7 +9301,7 @@
         <v>130</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>10</v>
@@ -9331,7 +9330,7 @@
         <v>107</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="12.75" customHeight="1">
@@ -9366,7 +9365,7 @@
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="12.75" customHeight="1">
@@ -9438,7 +9437,7 @@
         <v>107</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="12.75" customHeight="1">
@@ -9446,7 +9445,7 @@
         <v>152</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>10</v>
@@ -9475,7 +9474,7 @@
         <v>107</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="12.75" customHeight="1">
@@ -9483,7 +9482,7 @@
         <v>152</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>10</v>
@@ -9512,7 +9511,7 @@
         <v>107</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="12.75" customHeight="1">
@@ -9590,7 +9589,7 @@
         <v>134</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>10</v>
@@ -9819,7 +9818,7 @@
         <v>12</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="12.75" customHeight="1">
@@ -9827,7 +9826,7 @@
         <v>37</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>10</v>
@@ -9856,7 +9855,7 @@
         <v>12</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="12.75" customHeight="1">
@@ -9893,7 +9892,7 @@
         <v>55</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="12.75" customHeight="1">
@@ -9930,7 +9929,7 @@
         <v>55</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="12.75" customHeight="1">
@@ -9967,15 +9966,15 @@
         <v>12</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="12.75" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>284</v>
@@ -9990,7 +9989,7 @@
       <c r="K231" s="10"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="12.75" customHeight="1">
@@ -10109,7 +10108,7 @@
         <v>41</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>49</v>
@@ -10143,10 +10142,10 @@
     </row>
     <row r="236" spans="1:13" ht="12.75" customHeight="1">
       <c r="A236" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>284</v>
@@ -10161,15 +10160,15 @@
       <c r="K236" s="10"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="12.75" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>284</v>
@@ -10184,15 +10183,15 @@
       <c r="K237" s="10"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="12.75" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>284</v>
@@ -10207,15 +10206,15 @@
       <c r="K238" s="10"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="12.75" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>284</v>
@@ -10230,15 +10229,15 @@
       <c r="K239" s="10"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="12.75" customHeight="1">
       <c r="A240" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>284</v>
@@ -10253,15 +10252,15 @@
       <c r="K240" s="10"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>284</v>
@@ -10276,15 +10275,15 @@
       <c r="K241" s="10"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>284</v>
@@ -10299,15 +10298,15 @@
       <c r="K242" s="10"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="12.75" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>284</v>
@@ -10322,7 +10321,7 @@
       <c r="K243" s="10"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="12.75" customHeight="1">
@@ -10359,7 +10358,7 @@
         <v>107</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="12.75" customHeight="1">
@@ -10396,7 +10395,7 @@
         <v>107</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="12.75" customHeight="1">
@@ -10404,7 +10403,7 @@
         <v>136</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>284</v>
@@ -10419,7 +10418,7 @@
       <c r="K246" s="10"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="12.75" customHeight="1">
@@ -10427,7 +10426,7 @@
         <v>136</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>284</v>
@@ -10442,7 +10441,7 @@
       <c r="K247" s="10"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="12.75" customHeight="1">
@@ -10479,7 +10478,7 @@
         <v>107</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="12.75" customHeight="1">
@@ -10487,7 +10486,7 @@
         <v>136</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>10</v>
@@ -10516,13 +10515,13 @@
         <v>107</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="12.75" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>284</v>
@@ -10537,7 +10536,7 @@
       <c r="K250" s="10"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="12.75" customHeight="1">
@@ -10574,7 +10573,7 @@
         <v>107</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="12.75" customHeight="1">
@@ -10611,7 +10610,7 @@
         <v>107</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="12.75" customHeight="1">
@@ -10714,7 +10713,7 @@
         <v>107</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="12.75" customHeight="1">
@@ -10751,7 +10750,7 @@
         <v>107</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="12.75" customHeight="1">
@@ -10759,7 +10758,7 @@
         <v>138</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>10</v>
@@ -10788,7 +10787,7 @@
         <v>107</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="12.75" customHeight="1">
@@ -10825,7 +10824,7 @@
         <v>107</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="12.75" customHeight="1">
@@ -10862,7 +10861,7 @@
         <v>107</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="12.75" customHeight="1">
@@ -10888,10 +10887,10 @@
     </row>
     <row r="261" spans="1:13" ht="12.75" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>213</v>
@@ -10911,10 +10910,10 @@
     </row>
     <row r="262" spans="1:13" ht="12.75" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>213</v>
@@ -11068,7 +11067,7 @@
       <c r="K267" s="10"/>
       <c r="L267" s="3"/>
       <c r="M267" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="12.75" customHeight="1">
@@ -11076,7 +11075,7 @@
         <v>180</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>49</v>
@@ -11105,7 +11104,7 @@
         <v>182</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="12.75" customHeight="1">
@@ -11113,7 +11112,7 @@
         <v>180</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>49</v>
@@ -11142,7 +11141,7 @@
         <v>182</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="12.75" customHeight="1">
@@ -11150,7 +11149,7 @@
         <v>90</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>284</v>
@@ -11165,7 +11164,7 @@
       <c r="K270" s="10"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="12.75" customHeight="1">
@@ -11173,7 +11172,7 @@
         <v>90</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>49</v>
@@ -11202,7 +11201,7 @@
         <v>55</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="12.75" customHeight="1">
@@ -11210,7 +11209,7 @@
         <v>90</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>49</v>
@@ -11239,7 +11238,7 @@
         <v>55</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="12.75" customHeight="1">
@@ -11247,7 +11246,7 @@
         <v>90</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>284</v>
@@ -11262,7 +11261,7 @@
       <c r="K273" s="10"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="12.75" customHeight="1">
@@ -11270,7 +11269,7 @@
         <v>91</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>49</v>
@@ -11294,10 +11293,10 @@
         <v>87000</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="12.75" customHeight="1">
@@ -11305,7 +11304,7 @@
         <v>91</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>49</v>
@@ -11329,10 +11328,10 @@
         <v>87000</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="12.75" customHeight="1">
@@ -11340,7 +11339,7 @@
         <v>91</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>297</v>
@@ -11367,7 +11366,7 @@
         <v>107</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="12.75" customHeight="1">
@@ -11375,7 +11374,7 @@
         <v>91</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>10</v>
@@ -11404,7 +11403,7 @@
         <v>107</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="12.75" customHeight="1">
@@ -11412,7 +11411,7 @@
         <v>91</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>49</v>
@@ -11441,7 +11440,7 @@
         <v>55</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="12.75" customHeight="1">
@@ -11449,7 +11448,7 @@
         <v>91</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>49</v>
@@ -11478,7 +11477,7 @@
         <v>55</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="12.75" customHeight="1">
@@ -11486,7 +11485,7 @@
         <v>91</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>297</v>
@@ -11506,10 +11505,10 @@
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
       <c r="L280" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="12.75" customHeight="1">
@@ -11517,7 +11516,7 @@
         <v>91</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>297</v>
@@ -11537,10 +11536,10 @@
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
       <c r="L281" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="12.75" customHeight="1">
@@ -11548,7 +11547,7 @@
         <v>91</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>49</v>
@@ -11572,10 +11571,10 @@
         <v>83000</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="12.75" customHeight="1">
@@ -11583,7 +11582,7 @@
         <v>91</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>49</v>
@@ -11607,18 +11606,18 @@
         <v>83000</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="12.75" customHeight="1">
       <c r="A284" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>284</v>
@@ -11633,7 +11632,7 @@
       <c r="K284" s="10"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="12.75" customHeight="1">
@@ -11670,7 +11669,7 @@
         <v>12</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="12.75" customHeight="1">
@@ -11678,7 +11677,7 @@
         <v>42</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>10</v>
@@ -11702,10 +11701,10 @@
         <v>39000</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="12.75" customHeight="1">
@@ -11713,7 +11712,7 @@
         <v>42</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>10</v>
@@ -11738,7 +11737,7 @@
       </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="12.75" customHeight="1">
@@ -11775,7 +11774,7 @@
         <v>12</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="12.75" customHeight="1">
@@ -11812,7 +11811,7 @@
         <v>12</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="12.75" customHeight="1">
@@ -11820,7 +11819,7 @@
         <v>141</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>10</v>
@@ -11849,7 +11848,7 @@
         <v>107</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="12.75" customHeight="1">
@@ -11857,7 +11856,7 @@
         <v>141</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>10</v>
@@ -11886,7 +11885,7 @@
         <v>107</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="12.75" customHeight="1">
@@ -11929,7 +11928,7 @@
         <v>92</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>49</v>
@@ -11964,7 +11963,7 @@
         <v>92</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>49</v>
@@ -12133,15 +12132,15 @@
         <v>107</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="12.75" customHeight="1">
       <c r="A299" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>284</v>
@@ -12156,15 +12155,15 @@
       <c r="K299" s="10"/>
       <c r="L299" s="3"/>
       <c r="M299" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="12.75" customHeight="1">
       <c r="A300" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>284</v>
@@ -12179,15 +12178,15 @@
       <c r="K300" s="10"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="12.75" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>284</v>
@@ -12202,7 +12201,7 @@
       <c r="K301" s="10"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="12.75" customHeight="1">
@@ -12239,7 +12238,7 @@
         <v>107</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="12.75" customHeight="1">
@@ -12247,7 +12246,7 @@
         <v>94</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>49</v>
@@ -12276,7 +12275,7 @@
         <v>55</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="12.75" customHeight="1">
@@ -12284,7 +12283,7 @@
         <v>94</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>49</v>
@@ -12313,7 +12312,7 @@
         <v>55</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="12.75" customHeight="1">
@@ -12350,7 +12349,7 @@
         <v>55</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="12.75" customHeight="1">
@@ -12358,7 +12357,7 @@
         <v>94</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>49</v>
@@ -12387,7 +12386,7 @@
         <v>55</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="12.75" customHeight="1">
@@ -12424,7 +12423,7 @@
         <v>107</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="12.75" customHeight="1">
@@ -12432,7 +12431,7 @@
         <v>145</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>10</v>
@@ -12461,7 +12460,7 @@
         <v>107</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="12.75" customHeight="1">
@@ -12469,7 +12468,7 @@
         <v>145</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>10</v>
@@ -12498,7 +12497,7 @@
         <v>107</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="12.75" customHeight="1">
@@ -12535,15 +12534,15 @@
         <v>107</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="12.75" customHeight="1">
       <c r="A311" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>284</v>
@@ -12558,15 +12557,15 @@
       <c r="K311" s="10"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="12.75" customHeight="1">
       <c r="A312" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>10</v>
@@ -12590,18 +12589,18 @@
         <v>39000</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="12.75" customHeight="1">
       <c r="A313" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>284</v>
@@ -12616,15 +12615,15 @@
       <c r="K313" s="10"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="12.75" customHeight="1">
       <c r="A314" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>284</v>
@@ -12639,15 +12638,15 @@
       <c r="K314" s="10"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="12.75" customHeight="1">
       <c r="A315" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>284</v>
@@ -12662,7 +12661,7 @@
       <c r="K315" s="10"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="12.75" customHeight="1">
@@ -12746,7 +12745,7 @@
         <v>45</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>10</v>
@@ -12783,7 +12782,7 @@
         <v>45</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>10</v>
@@ -12820,7 +12819,7 @@
         <v>45</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>10</v>
@@ -12929,7 +12928,7 @@
         <v>46</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>10</v>
@@ -12984,10 +12983,10 @@
     </row>
     <row r="327" spans="1:13" ht="12.75" customHeight="1">
       <c r="A327" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>297</v>
@@ -13012,7 +13011,7 @@
       </c>
       <c r="L327" s="3"/>
       <c r="M327" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="12.75" customHeight="1">
@@ -13052,10 +13051,10 @@
     </row>
     <row r="329" spans="1:13" ht="12.75" customHeight="1">
       <c r="A329" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>10</v>
@@ -13079,18 +13078,18 @@
         <v>28000</v>
       </c>
       <c r="L329" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M329" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="12.75" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>10</v>
@@ -13114,18 +13113,18 @@
         <v>28000</v>
       </c>
       <c r="L330" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M330" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="12.75" customHeight="1">
       <c r="A331" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>10</v>
@@ -13149,18 +13148,18 @@
         <v>28000</v>
       </c>
       <c r="L331" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M331" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="12.75" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C332" s="15" t="s">
         <v>297</v>
@@ -13180,18 +13179,18 @@
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
       <c r="L332" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M332" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="12.75" customHeight="1">
       <c r="A333" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C333" s="15"/>
       <c r="D333" s="5"/>
@@ -13209,18 +13208,18 @@
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
       <c r="L333" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="12.75" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C334" s="15" t="s">
         <v>297</v>
@@ -13244,18 +13243,18 @@
         <v>31000</v>
       </c>
       <c r="L334" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M334" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="12.75" customHeight="1">
       <c r="A335" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C335" s="15"/>
       <c r="D335" s="5"/>
@@ -13277,16 +13276,16 @@
         <v>31000</v>
       </c>
       <c r="L335" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M335" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="12.75" customHeight="1">
       <c r="A336" s="16"/>
       <c r="B336" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C336" s="15" t="s">
         <v>297</v>
@@ -13301,13 +13300,13 @@
       <c r="K336" s="10"/>
       <c r="L336" s="16"/>
       <c r="M336" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="12.75" customHeight="1">
       <c r="A337" s="16"/>
       <c r="B337" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C337" s="15" t="s">
         <v>297</v>
@@ -13322,7 +13321,7 @@
       <c r="K337" s="10"/>
       <c r="L337" s="16"/>
       <c r="M337" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="12.75" customHeight="1">

--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84795878-A16D-4551-8571-4C0EBD5F7C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823AF787-BC4E-4041-90F9-CB5B2DE111D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>WALES</t>
-  </si>
-  <si>
-    <t>LH290</t>
   </si>
   <si>
     <t>ルル</t>
@@ -2136,7 +2133,12 @@
     </r>
   </si>
   <si>
+    <t>LH290</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>SB210</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2496,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2525,13 +2527,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>521</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>4</v>
@@ -2546,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>8</v>
@@ -2555,7 +2557,7 @@
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -2568,18 +2570,18 @@
       <c r="K2" s="8"/>
       <c r="L2" s="6"/>
       <c r="M2" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D3" s="5">
         <v>99</v>
@@ -2603,18 +2605,18 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2634,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -2671,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -2708,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -2745,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -2774,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
@@ -2782,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -2811,21 +2813,21 @@
         <v>12</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2845,21 +2847,21 @@
         <v>72000</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -2889,13 +2891,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2915,10 +2917,10 @@
         <v>103000</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1">
@@ -2926,13 +2928,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2952,10 +2954,10 @@
         <v>90000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1">
@@ -2963,13 +2965,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2989,10 +2991,10 @@
         <v>90000</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1">
@@ -3000,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3015,18 +3017,18 @@
       <c r="K15" s="10"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3038,16 +3040,16 @@
       <c r="K16" s="10"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3059,18 +3061,18 @@
       <c r="K17" s="10"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3082,21 +3084,21 @@
       <c r="K18" s="10"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3116,22 +3118,22 @@
         <v>77000</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3151,24 +3153,24 @@
         <v>90000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3188,10 +3190,10 @@
         <v>90000</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1">
@@ -3228,21 +3230,21 @@
         <v>12</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3262,24 +3264,24 @@
         <v>33000</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3299,22 +3301,22 @@
         <v>33000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3334,24 +3336,24 @@
         <v>90000</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3371,24 +3373,24 @@
         <v>90000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3408,24 +3410,24 @@
         <v>33000</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3445,24 +3447,24 @@
         <v>90000</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3482,24 +3484,24 @@
         <v>33000</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3519,10 +3521,10 @@
         <v>33000</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1">
@@ -3530,10 +3532,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -3565,10 +3567,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
@@ -3598,7 +3600,7 @@
     <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -3614,16 +3616,16 @@
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3643,18 +3645,18 @@
         <v>33000</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
@@ -3686,13 +3688,13 @@
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" s="5">
         <v>99</v>
@@ -3721,13 +3723,13 @@
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3744,16 +3746,16 @@
     </row>
     <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3773,18 +3775,18 @@
         <v>90000</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -3797,15 +3799,15 @@
       <c r="K39" s="10"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
@@ -3818,15 +3820,15 @@
       <c r="K40" s="10"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -3839,15 +3841,15 @@
       <c r="K41" s="10"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
@@ -3860,21 +3862,21 @@
       <c r="K42" s="10"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3894,24 +3896,24 @@
         <v>90000</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3931,24 +3933,24 @@
         <v>33000</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3968,24 +3970,24 @@
         <v>33000</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -4005,24 +4007,24 @@
         <v>90000</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -4042,24 +4044,24 @@
         <v>90000</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4079,24 +4081,24 @@
         <v>90000</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4116,24 +4118,24 @@
         <v>90000</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4153,24 +4155,24 @@
         <v>90000</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4190,7 +4192,7 @@
         <v>33000</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>13</v>
@@ -4198,16 +4200,16 @@
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4227,7 +4229,7 @@
         <v>33000</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>13</v>
@@ -4235,16 +4237,16 @@
     </row>
     <row r="53" spans="1:13" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4264,7 +4266,7 @@
         <v>90000</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>13</v>
@@ -4272,16 +4274,16 @@
     </row>
     <row r="54" spans="1:13" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4301,18 +4303,18 @@
         <v>33000</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
@@ -4341,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75" customHeight="1">
@@ -4349,7 +4351,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
@@ -4378,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" customHeight="1">
@@ -4415,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="12.75" customHeight="1">
@@ -4423,7 +4425,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
@@ -4452,21 +4454,21 @@
         <v>12</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -4486,24 +4488,24 @@
         <v>90000</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4523,24 +4525,24 @@
         <v>90000</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -4560,24 +4562,24 @@
         <v>90000</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="12.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4597,10 +4599,10 @@
         <v>90000</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="12.75" customHeight="1">
@@ -4645,7 +4647,7 @@
         <v>19</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>10</v>
@@ -4679,16 +4681,16 @@
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -4708,7 +4710,7 @@
         <v>90000</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>13</v>
@@ -4716,16 +4718,16 @@
     </row>
     <row r="66" spans="1:13" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4745,7 +4747,7 @@
         <v>90000</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>13</v>
@@ -4753,16 +4755,16 @@
     </row>
     <row r="67" spans="1:13" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4782,7 +4784,7 @@
         <v>108000</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>13</v>
@@ -4793,7 +4795,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>10</v>
@@ -4822,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="12.75" customHeight="1">
@@ -4859,21 +4861,21 @@
         <v>12</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4893,24 +4895,24 @@
         <v>90000</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4930,18 +4932,18 @@
         <v>90000</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="5"/>
@@ -4954,18 +4956,18 @@
       <c r="K72" s="10"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4977,18 +4979,18 @@
       <c r="K73" s="10"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -5000,21 +5002,21 @@
       <c r="K74" s="10"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -5034,24 +5036,24 @@
         <v>37000</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -5071,24 +5073,24 @@
         <v>37000</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -5108,21 +5110,21 @@
         <v>37000</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -5134,18 +5136,18 @@
       <c r="K78" s="10"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -5157,21 +5159,21 @@
       <c r="K79" s="10"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -5191,19 +5193,19 @@
         <v>92500</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -5230,16 +5232,16 @@
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -5259,19 +5261,19 @@
         <v>66600</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" ht="12.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
@@ -5298,13 +5300,13 @@
     </row>
     <row r="84" spans="1:13" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -5316,18 +5318,18 @@
       <c r="K84" s="10"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -5339,15 +5341,15 @@
       <c r="K85" s="10"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>10</v>
@@ -5374,15 +5376,15 @@
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="12.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>10</v>
@@ -5409,13 +5411,13 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="5"/>
@@ -5428,15 +5430,15 @@
       <c r="K88" s="10"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="5"/>
@@ -5458,21 +5460,21 @@
         <v>45000</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>460</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -5493,21 +5495,21 @@
         <v>46000</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -5528,21 +5530,21 @@
         <v>46000</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5563,21 +5565,21 @@
         <v>50000</v>
       </c>
       <c r="L92" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M92" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5598,21 +5600,21 @@
         <v>50000</v>
       </c>
       <c r="L93" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M93" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5633,21 +5635,21 @@
         <v>50000</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5668,21 +5670,21 @@
         <v>45000</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -5703,21 +5705,21 @@
         <v>46000</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -5738,24 +5740,24 @@
         <v>46000</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="12.75" customHeight="1">
       <c r="A98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5775,24 +5777,24 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="12.75" customHeight="1">
       <c r="A99" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5812,21 +5814,21 @@
         <v>33000</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="5">
         <v>99</v>
@@ -5850,18 +5852,18 @@
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -5873,16 +5875,16 @@
       <c r="K101" s="10"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -5897,13 +5899,13 @@
     </row>
     <row r="103" spans="1:13" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="C103" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -5918,13 +5920,13 @@
     </row>
     <row r="104" spans="1:13" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D104" s="5">
         <v>99</v>
@@ -5948,18 +5950,18 @@
       </c>
       <c r="L104" s="3"/>
       <c r="M104" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -5971,18 +5973,18 @@
       <c r="K105" s="10"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="5">
         <v>99</v>
@@ -6006,18 +6008,18 @@
       </c>
       <c r="L106" s="3"/>
       <c r="M106" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="C107" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="5">
         <v>99</v>
@@ -6041,18 +6043,18 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -6064,18 +6066,18 @@
       <c r="K108" s="10"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" s="5">
         <v>99</v>
@@ -6099,18 +6101,18 @@
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -6122,18 +6124,18 @@
       <c r="K110" s="10"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D111" s="5">
         <v>99</v>
@@ -6157,18 +6159,18 @@
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>496</v>
-      </c>
       <c r="C112" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -6180,18 +6182,18 @@
       <c r="K112" s="10"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D113" s="5">
         <v>99</v>
@@ -6215,18 +6217,18 @@
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D114" s="5">
         <v>99</v>
@@ -6250,18 +6252,18 @@
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="C115" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D115" s="5">
         <v>99</v>
@@ -6291,7 +6293,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>10</v>
@@ -6320,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="12.75" customHeight="1">
@@ -6328,7 +6330,7 @@
         <v>23</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>10</v>
@@ -6357,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="12.75" customHeight="1">
@@ -6365,10 +6367,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -6380,7 +6382,7 @@
       <c r="K118" s="10"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="12.75" customHeight="1">
@@ -6388,7 +6390,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="5"/>
@@ -6401,21 +6403,21 @@
       <c r="K119" s="10"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -6426,21 +6428,21 @@
       <c r="K120" s="10"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -6451,21 +6453,21 @@
       <c r="K121" s="10"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -6485,24 +6487,24 @@
         <v>33000</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -6522,7 +6524,7 @@
         <v>33000</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M123" s="3"/>
     </row>
@@ -6560,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="12.75" customHeight="1">
@@ -6568,7 +6570,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>10</v>
@@ -6597,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="12.75" customHeight="1">
@@ -6634,13 +6636,13 @@
         <v>12</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="12.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>10</v>
@@ -6655,16 +6657,16 @@
       <c r="K127" s="10"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="12.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -6675,19 +6677,19 @@
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
       <c r="L128" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:13" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -6708,21 +6710,21 @@
         <v>32000</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -6741,21 +6743,21 @@
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -6774,21 +6776,21 @@
       </c>
       <c r="K131" s="10"/>
       <c r="L131" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -6800,18 +6802,18 @@
       <c r="K132" s="10"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -6823,18 +6825,18 @@
       <c r="K133" s="10"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -6858,18 +6860,18 @@
       </c>
       <c r="L134" s="3"/>
       <c r="M134" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D135" s="5">
         <v>0</v>
@@ -6893,18 +6895,18 @@
       </c>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -6924,18 +6926,18 @@
       <c r="K136" s="10"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -6955,18 +6957,18 @@
       <c r="K137" s="10"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="D138" s="5">
         <v>0</v>
@@ -6993,13 +6995,13 @@
     </row>
     <row r="139" spans="1:13" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -7026,13 +7028,13 @@
     </row>
     <row r="140" spans="1:13" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -7044,18 +7046,18 @@
       <c r="K140" s="10"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -7067,18 +7069,18 @@
       <c r="K141" s="10"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="C142" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -7099,21 +7101,21 @@
         <v>28000</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -7134,21 +7136,21 @@
         <v>28000</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -7169,21 +7171,21 @@
         <v>30000</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -7204,21 +7206,21 @@
         <v>30000</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="12.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="5">
         <v>99</v>
@@ -7241,21 +7243,21 @@
         <v>81000</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="12.75" customHeight="1">
       <c r="A147" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="C147" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="5">
         <v>99</v>
@@ -7278,21 +7280,21 @@
         <v>81000</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -7304,18 +7306,18 @@
       <c r="K148" s="10"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -7327,18 +7329,18 @@
       <c r="K149" s="10"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -7350,18 +7352,18 @@
       <c r="K150" s="10"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -7373,7 +7375,7 @@
       <c r="K151" s="10"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="12.75" customHeight="1">
@@ -7381,10 +7383,10 @@
         <v>9</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="5">
         <v>0</v>
@@ -7443,7 +7445,7 @@
         <v>12</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="12.75" customHeight="1">
@@ -7451,7 +7453,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>10</v>
@@ -7480,7 +7482,7 @@
         <v>12</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="12.75" customHeight="1">
@@ -7517,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="12.75" customHeight="1">
@@ -7525,7 +7527,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>10</v>
@@ -7554,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="12.75" customHeight="1">
@@ -7562,13 +7564,13 @@
         <v>9</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -7588,10 +7590,10 @@
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="12.75" customHeight="1">
@@ -7599,13 +7601,13 @@
         <v>9</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -7625,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="12.75" customHeight="1">
@@ -7636,10 +7638,10 @@
         <v>9</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -7663,7 +7665,7 @@
       </c>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="12.75" customHeight="1">
@@ -7671,10 +7673,10 @@
         <v>9</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D160" s="5">
         <v>0</v>
@@ -7704,17 +7706,17 @@
         <v>9</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G161" s="13">
         <v>21000</v>
@@ -7732,10 +7734,10 @@
         <v>45000</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="12.75" customHeight="1">
@@ -7743,17 +7745,17 @@
         <v>9</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G162" s="13">
         <v>21000</v>
@@ -7771,21 +7773,21 @@
         <v>45000</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -7797,18 +7799,18 @@
       <c r="K163" s="10"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -7820,18 +7822,18 @@
       <c r="K164" s="10"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -7843,18 +7845,18 @@
       <c r="K165" s="10"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -7866,18 +7868,18 @@
       <c r="K166" s="10"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7889,18 +7891,18 @@
       <c r="K167" s="10"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7912,18 +7914,18 @@
       <c r="K168" s="10"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7935,18 +7937,18 @@
       <c r="K169" s="10"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -7958,18 +7960,18 @@
       <c r="K170" s="10"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7981,18 +7983,18 @@
       <c r="K171" s="10"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -8004,15 +8006,15 @@
       <c r="K172" s="10"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>10</v>
@@ -8039,15 +8041,15 @@
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="5"/>
@@ -8060,18 +8062,18 @@
       <c r="K174" s="10"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="C175" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D175" s="5">
         <v>99</v>
@@ -8095,15 +8097,15 @@
       </c>
       <c r="L175" s="3"/>
       <c r="M175" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>10</v>
@@ -8130,15 +8132,15 @@
       </c>
       <c r="L176" s="3"/>
       <c r="M176" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>10</v>
@@ -8165,15 +8167,15 @@
       </c>
       <c r="L177" s="3"/>
       <c r="M177" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="5"/>
@@ -8189,13 +8191,13 @@
     </row>
     <row r="179" spans="1:13" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="C179" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D179" s="5">
         <v>99</v>
@@ -8219,18 +8221,18 @@
       </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="C180" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D180" s="5">
         <v>99</v>
@@ -8254,15 +8256,15 @@
       </c>
       <c r="L180" s="3"/>
       <c r="M180" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>10</v>
@@ -8289,21 +8291,21 @@
       </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -8323,24 +8325,24 @@
         <v>33000</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C183" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -8360,21 +8362,21 @@
         <v>77000</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -8386,18 +8388,18 @@
       <c r="K184" s="10"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -8409,16 +8411,16 @@
       <c r="K185" s="10"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="12.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -8434,10 +8436,10 @@
     <row r="187" spans="1:13" ht="12.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -8452,16 +8454,16 @@
     </row>
     <row r="188" spans="1:13" ht="12.75" customHeight="1">
       <c r="A188" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C188" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -8481,21 +8483,21 @@
         <v>90000</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D189" s="5">
         <v>0</v>
@@ -8519,21 +8521,21 @@
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="12.75" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
@@ -8553,21 +8555,21 @@
         <v>90000</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="12.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D191" s="5">
         <v>0</v>
@@ -8591,21 +8593,21 @@
       </c>
       <c r="L191" s="3"/>
       <c r="M191" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="12.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -8625,24 +8627,24 @@
         <v>90000</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="12.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -8662,24 +8664,24 @@
         <v>90000</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="12.75" customHeight="1">
       <c r="A194" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -8699,24 +8701,24 @@
         <v>33000</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="12.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
@@ -8736,21 +8738,21 @@
         <v>33000</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="12.75" customHeight="1">
       <c r="A196" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="C196" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -8772,18 +8774,18 @@
       </c>
       <c r="L196" s="3"/>
       <c r="M196" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="12.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -8805,18 +8807,18 @@
       </c>
       <c r="L197" s="3"/>
       <c r="M197" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="12.75" customHeight="1">
       <c r="A198" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>505</v>
-      </c>
       <c r="C198" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -8828,18 +8830,18 @@
       <c r="K198" s="10"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="C199" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -8861,21 +8863,21 @@
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="12.75" customHeight="1">
       <c r="A200" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -8895,7 +8897,7 @@
         <v>33000</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M200" s="14"/>
     </row>
@@ -8904,7 +8906,7 @@
         <v>29</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>30</v>
+        <v>552</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>10</v>
@@ -8939,7 +8941,7 @@
         <v>29</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>10</v>
@@ -8971,16 +8973,16 @@
     </row>
     <row r="203" spans="1:13" ht="12.75" customHeight="1">
       <c r="A203" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -9000,22 +9002,22 @@
         <v>37000</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:13" ht="12.75" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -9035,22 +9037,22 @@
         <v>37000</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:13" ht="12.75" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -9070,16 +9072,16 @@
         <v>37000</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:13" ht="12.75" customHeight="1">
       <c r="A206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>10</v>
@@ -9108,15 +9110,15 @@
         <v>12</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="12.75" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>10</v>
@@ -9145,21 +9147,21 @@
         <v>12</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="12.75" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -9179,24 +9181,24 @@
         <v>90000</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="12.75" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -9216,18 +9218,18 @@
         <v>90000</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="12.75" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>10</v>
@@ -9256,21 +9258,21 @@
         <v>12</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="12.75" customHeight="1">
       <c r="A211" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -9290,24 +9292,24 @@
         <v>33000</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="12.75" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -9327,21 +9329,21 @@
         <v>33000</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="12.75" customHeight="1">
       <c r="A213" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D213" s="5">
         <v>99</v>
@@ -9365,15 +9367,15 @@
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="12.75" customHeight="1">
       <c r="A214" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>10</v>
@@ -9400,21 +9402,21 @@
       </c>
       <c r="L214" s="3"/>
       <c r="M214" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="12.75" customHeight="1">
       <c r="A215" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
@@ -9434,24 +9436,24 @@
         <v>33000</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="12.75" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -9471,24 +9473,24 @@
         <v>33000</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="12.75" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -9508,18 +9510,18 @@
         <v>33000</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="12.75" customHeight="1">
       <c r="A218" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>10</v>
@@ -9551,16 +9553,16 @@
     </row>
     <row r="219" spans="1:13" ht="12.75" customHeight="1">
       <c r="A219" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -9580,22 +9582,22 @@
         <v>33000</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M219" s="3"/>
     </row>
     <row r="220" spans="1:13" ht="12.75" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -9615,19 +9617,19 @@
         <v>33000</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M220" s="3"/>
     </row>
     <row r="221" spans="1:13" ht="12.75" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D221" s="5">
         <v>0</v>
@@ -9654,13 +9656,13 @@
     </row>
     <row r="222" spans="1:13" ht="12.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D222" s="5">
         <v>0</v>
@@ -9687,10 +9689,10 @@
     </row>
     <row r="223" spans="1:13" ht="12.75" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>10</v>
@@ -9720,10 +9722,10 @@
     </row>
     <row r="224" spans="1:13" ht="12.75" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>10</v>
@@ -9753,10 +9755,10 @@
     </row>
     <row r="225" spans="1:13" ht="12.75" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>10</v>
@@ -9786,10 +9788,10 @@
     </row>
     <row r="226" spans="1:13" ht="12.75" customHeight="1">
       <c r="A226" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>10</v>
@@ -9818,15 +9820,15 @@
         <v>12</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="12.75" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>10</v>
@@ -9855,21 +9857,21 @@
         <v>12</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="12.75" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -9889,24 +9891,24 @@
         <v>90000</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="12.75" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -9926,18 +9928,18 @@
         <v>90000</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="12.75" customHeight="1">
       <c r="A230" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>10</v>
@@ -9966,18 +9968,18 @@
         <v>12</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="12.75" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -9989,15 +9991,15 @@
       <c r="K231" s="10"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="12.75" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>10</v>
@@ -10031,10 +10033,10 @@
     </row>
     <row r="233" spans="1:13" ht="12.75" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>10</v>
@@ -10068,16 +10070,16 @@
     </row>
     <row r="234" spans="1:13" ht="12.75" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -10097,7 +10099,7 @@
         <v>90000</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M234" s="3" t="s">
         <v>13</v>
@@ -10105,16 +10107,16 @@
     </row>
     <row r="235" spans="1:13" ht="12.75" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -10134,7 +10136,7 @@
         <v>90000</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M235" s="3" t="s">
         <v>13</v>
@@ -10142,13 +10144,13 @@
     </row>
     <row r="236" spans="1:13" ht="12.75" customHeight="1">
       <c r="A236" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="C236" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -10160,18 +10162,18 @@
       <c r="K236" s="10"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="12.75" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -10183,18 +10185,18 @@
       <c r="K237" s="10"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="12.75" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -10206,18 +10208,18 @@
       <c r="K238" s="10"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="12.75" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -10229,18 +10231,18 @@
       <c r="K239" s="10"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="12.75" customHeight="1">
       <c r="A240" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="C240" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -10252,18 +10254,18 @@
       <c r="K240" s="10"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -10275,18 +10277,18 @@
       <c r="K241" s="10"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -10298,18 +10300,18 @@
       <c r="K242" s="10"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="12.75" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -10321,21 +10323,21 @@
       <c r="K243" s="10"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="12.75" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -10355,24 +10357,24 @@
         <v>33000</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="12.75" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -10392,21 +10394,21 @@
         <v>33000</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="12.75" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -10418,18 +10420,18 @@
       <c r="K246" s="10"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="12.75" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -10441,21 +10443,21 @@
       <c r="K247" s="10"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="12.75" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -10475,24 +10477,24 @@
         <v>33000</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="12.75" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -10512,19 +10514,19 @@
         <v>33000</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="12.75" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -10536,21 +10538,21 @@
       <c r="K250" s="10"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="12.75" customHeight="1">
       <c r="A251" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -10570,24 +10572,24 @@
         <v>33000</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="12.75" customHeight="1">
       <c r="A252" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -10607,18 +10609,18 @@
         <v>33000</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="12.75" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>10</v>
@@ -10648,10 +10650,10 @@
     </row>
     <row r="254" spans="1:13" ht="12.75" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>10</v>
@@ -10681,16 +10683,16 @@
     </row>
     <row r="255" spans="1:13" ht="12.75" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -10710,24 +10712,24 @@
         <v>33000</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="12.75" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -10747,15 +10749,15 @@
         <v>33000</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="12.75" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>553</v>
@@ -10764,7 +10766,7 @@
         <v>10</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -10784,24 +10786,24 @@
         <v>33000</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="12.75" customHeight="1">
       <c r="A258" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -10821,24 +10823,24 @@
         <v>33000</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="12.75" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -10858,21 +10860,21 @@
         <v>33000</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="12.75" customHeight="1">
       <c r="A260" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="C260" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -10887,13 +10889,13 @@
     </row>
     <row r="261" spans="1:13" ht="12.75" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -10905,18 +10907,18 @@
       <c r="K261" s="10"/>
       <c r="L261" s="3"/>
       <c r="M261" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="12.75" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -10928,18 +10930,18 @@
       <c r="K262" s="10"/>
       <c r="L262" s="3"/>
       <c r="M262" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="12.75" customHeight="1">
       <c r="A263" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="C263" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D263" s="5">
         <v>99</v>
@@ -10963,18 +10965,18 @@
       </c>
       <c r="L263" s="3"/>
       <c r="M263" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="12.75" customHeight="1">
       <c r="A264" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="C264" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D264" s="5">
         <v>99</v>
@@ -10998,18 +11000,18 @@
       </c>
       <c r="L264" s="3"/>
       <c r="M264" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="12.75" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -11021,18 +11023,18 @@
       <c r="K265" s="10"/>
       <c r="L265" s="3"/>
       <c r="M265" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="12.75" customHeight="1">
       <c r="A266" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="C266" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -11044,18 +11046,18 @@
       <c r="K266" s="10"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="12.75" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -11067,21 +11069,21 @@
       <c r="K267" s="10"/>
       <c r="L267" s="3"/>
       <c r="M267" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="12.75" customHeight="1">
       <c r="A268" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D268" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -11101,24 +11103,24 @@
         <v>0</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="12.75" customHeight="1">
       <c r="A269" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -11138,21 +11140,21 @@
         <v>0</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="12.75" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -11164,21 +11166,21 @@
       <c r="K270" s="10"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="12.75" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -11198,24 +11200,24 @@
         <v>90000</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="12.75" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -11235,21 +11237,21 @@
         <v>90000</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="12.75" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -11261,18 +11263,18 @@
       <c r="K273" s="10"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="12.75" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -11293,21 +11295,21 @@
         <v>87000</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="12.75" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -11328,21 +11330,21 @@
         <v>87000</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="12.75" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -11363,24 +11365,24 @@
         <v>33000</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="12.75" customHeight="1">
       <c r="A277" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
@@ -11400,24 +11402,24 @@
         <v>33000</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="12.75" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -11437,24 +11439,24 @@
         <v>90000</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="12.75" customHeight="1">
       <c r="A279" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -11474,21 +11476,21 @@
         <v>90000</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="12.75" customHeight="1">
       <c r="A280" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -11505,21 +11507,21 @@
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
       <c r="L280" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="12.75" customHeight="1">
       <c r="A281" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -11536,21 +11538,21 @@
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
       <c r="L281" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="12.75" customHeight="1">
       <c r="A282" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -11571,21 +11573,21 @@
         <v>83000</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="12.75" customHeight="1">
       <c r="A283" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -11606,21 +11608,21 @@
         <v>83000</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="12.75" customHeight="1">
       <c r="A284" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -11632,15 +11634,15 @@
       <c r="K284" s="10"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="12.75" customHeight="1">
       <c r="A285" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>10</v>
@@ -11669,15 +11671,15 @@
         <v>12</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="12.75" customHeight="1">
       <c r="A286" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>10</v>
@@ -11701,18 +11703,18 @@
         <v>39000</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="12.75" customHeight="1">
       <c r="A287" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>10</v>
@@ -11737,15 +11739,15 @@
       </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="12.75" customHeight="1">
       <c r="A288" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>10</v>
@@ -11774,15 +11776,15 @@
         <v>12</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="12.75" customHeight="1">
       <c r="A289" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>10</v>
@@ -11811,21 +11813,21 @@
         <v>12</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="12.75" customHeight="1">
       <c r="A290" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -11845,24 +11847,24 @@
         <v>33000</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="12.75" customHeight="1">
       <c r="A291" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -11882,24 +11884,24 @@
         <v>33000</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="12.75" customHeight="1">
       <c r="A292" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -11919,22 +11921,22 @@
         <v>90000</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M292" s="3"/>
     </row>
     <row r="293" spans="1:13" ht="12.75" customHeight="1">
       <c r="A293" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -11954,22 +11956,22 @@
         <v>90000</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M293" s="3"/>
     </row>
     <row r="294" spans="1:13" ht="12.75" customHeight="1">
       <c r="A294" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -11989,22 +11991,22 @@
         <v>90000</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M294" s="3"/>
     </row>
     <row r="295" spans="1:13" ht="12.75" customHeight="1">
       <c r="A295" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -12024,22 +12026,22 @@
         <v>77000</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M295" s="3"/>
     </row>
     <row r="296" spans="1:13" ht="12.75" customHeight="1">
       <c r="A296" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -12059,22 +12061,22 @@
         <v>33000</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M296" s="3"/>
     </row>
     <row r="297" spans="1:13" ht="12.75" customHeight="1">
       <c r="A297" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -12094,22 +12096,22 @@
         <v>77000</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M297" s="3"/>
     </row>
     <row r="298" spans="1:13" ht="12.75" customHeight="1">
       <c r="A298" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -12129,21 +12131,21 @@
         <v>33000</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="12.75" customHeight="1">
       <c r="A299" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="C299" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -12155,18 +12157,18 @@
       <c r="K299" s="10"/>
       <c r="L299" s="3"/>
       <c r="M299" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="12.75" customHeight="1">
       <c r="A300" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -12178,18 +12180,18 @@
       <c r="K300" s="10"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="12.75" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -12201,21 +12203,21 @@
       <c r="K301" s="10"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="12.75" customHeight="1">
       <c r="A302" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -12235,24 +12237,24 @@
         <v>33000</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="12.75" customHeight="1">
       <c r="A303" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -12272,24 +12274,24 @@
         <v>90000</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="12.75" customHeight="1">
       <c r="A304" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -12309,24 +12311,24 @@
         <v>90000</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="12.75" customHeight="1">
       <c r="A305" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B305" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C305" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -12346,24 +12348,24 @@
         <v>90000</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="12.75" customHeight="1">
       <c r="A306" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -12383,24 +12385,24 @@
         <v>90000</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="12.75" customHeight="1">
       <c r="A307" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -12420,24 +12422,24 @@
         <v>33000</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="12.75" customHeight="1">
       <c r="A308" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
@@ -12457,24 +12459,24 @@
         <v>33000</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="12.75" customHeight="1">
       <c r="A309" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
@@ -12494,24 +12496,24 @@
         <v>33000</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="12.75" customHeight="1">
       <c r="A310" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -12531,21 +12533,21 @@
         <v>33000</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="12.75" customHeight="1">
       <c r="A311" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B311" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="C311" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -12557,15 +12559,15 @@
       <c r="K311" s="10"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="12.75" customHeight="1">
       <c r="A312" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>10</v>
@@ -12589,21 +12591,21 @@
         <v>39000</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="12.75" customHeight="1">
       <c r="A313" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -12615,18 +12617,18 @@
       <c r="K313" s="10"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="12.75" customHeight="1">
       <c r="A314" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -12638,18 +12640,18 @@
       <c r="K314" s="10"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="12.75" customHeight="1">
       <c r="A315" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -12661,16 +12663,16 @@
       <c r="K315" s="10"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="12.75" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -12686,10 +12688,10 @@
     <row r="317" spans="1:13" ht="12.75" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -12705,10 +12707,10 @@
     <row r="318" spans="1:13" ht="12.75" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -12724,10 +12726,10 @@
     <row r="319" spans="1:13" ht="12.75" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -12742,10 +12744,10 @@
     </row>
     <row r="320" spans="1:13" ht="12.75" customHeight="1">
       <c r="A320" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>10</v>
@@ -12779,10 +12781,10 @@
     </row>
     <row r="321" spans="1:13" ht="12.75" customHeight="1">
       <c r="A321" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>10</v>
@@ -12816,10 +12818,10 @@
     </row>
     <row r="322" spans="1:13" ht="12.75" customHeight="1">
       <c r="A322" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>10</v>
@@ -12853,10 +12855,10 @@
     </row>
     <row r="323" spans="1:13" ht="12.75" customHeight="1">
       <c r="A323" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>10</v>
@@ -12883,15 +12885,15 @@
       </c>
       <c r="L323" s="3"/>
       <c r="M323" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="12.75" customHeight="1">
       <c r="A324" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>10</v>
@@ -12920,15 +12922,15 @@
         <v>12</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="12.75" customHeight="1">
       <c r="A325" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>10</v>
@@ -12957,18 +12959,18 @@
         <v>12</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="12.75" customHeight="1">
       <c r="A326" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B326" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C326" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -12983,13 +12985,13 @@
     </row>
     <row r="327" spans="1:13" ht="12.75" customHeight="1">
       <c r="A327" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -13011,21 +13013,21 @@
       </c>
       <c r="L327" s="3"/>
       <c r="M327" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="12.75" customHeight="1">
       <c r="A328" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B328" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -13045,16 +13047,16 @@
         <v>33000</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M328" s="3"/>
     </row>
     <row r="329" spans="1:13" ht="12.75" customHeight="1">
       <c r="A329" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>10</v>
@@ -13078,18 +13080,18 @@
         <v>28000</v>
       </c>
       <c r="L329" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M329" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="12.75" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>10</v>
@@ -13113,18 +13115,18 @@
         <v>28000</v>
       </c>
       <c r="L330" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M330" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="12.75" customHeight="1">
       <c r="A331" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>10</v>
@@ -13148,21 +13150,21 @@
         <v>28000</v>
       </c>
       <c r="L331" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M331" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="12.75" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -13179,18 +13181,18 @@
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
       <c r="L332" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M332" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="12.75" customHeight="1">
       <c r="A333" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C333" s="15"/>
       <c r="D333" s="5"/>
@@ -13208,21 +13210,21 @@
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
       <c r="L333" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="12.75" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -13243,18 +13245,18 @@
         <v>31000</v>
       </c>
       <c r="L334" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M334" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="12.75" customHeight="1">
       <c r="A335" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C335" s="15"/>
       <c r="D335" s="5"/>
@@ -13276,19 +13278,19 @@
         <v>31000</v>
       </c>
       <c r="L335" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M335" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="12.75" customHeight="1">
       <c r="A336" s="16"/>
       <c r="B336" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -13300,16 +13302,16 @@
       <c r="K336" s="10"/>
       <c r="L336" s="16"/>
       <c r="M336" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="12.75" customHeight="1">
       <c r="A337" s="16"/>
       <c r="B337" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -13321,7 +13323,7 @@
       <c r="K337" s="10"/>
       <c r="L337" s="16"/>
       <c r="M337" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="12.75" customHeight="1">
